--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B1336-28E6-474A-AF0D-0190664D256F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE68F7B-C3E8-43B0-AED5-BD2D6795C9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="8475" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="8475" activeTab="1" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -835,42 +835,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -912,12 +876,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -928,6 +886,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
   <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2439,27 +2439,27 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="G5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="Q5" s="38" t="s">
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
       <c r="X5" s="26" t="s">
         <v>29</v>
       </c>
@@ -2472,24 +2472,24 @@
         <v>3.2490000000000001</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="G6" s="77">
+      <c r="G6" s="63">
         <v>45536</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
-      <c r="Q6" s="39" t="s">
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="Q6" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2503,13 +2503,13 @@
         <v>FY23</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="79"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
       <c r="Q7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2526,18 +2526,18 @@
         <v>628.40765803500005</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="G8" s="77">
+      <c r="G8" s="63">
         <v>45505</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
       <c r="Q8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2558,13 +2558,13 @@
         <v>FY23</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
       <c r="Q9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2581,18 +2581,18 @@
         <f t="shared" si="0"/>
         <v>FY23</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="63">
         <v>45444</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
       <c r="Q10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2616,13 +2616,13 @@
         <v>FY23</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
       <c r="Q11" s="1" t="s">
         <v>127</v>
       </c>
@@ -2640,13 +2640,13 @@
       </c>
       <c r="D12" s="15"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
       <c r="Q12" s="1" t="s">
         <v>128</v>
       </c>
@@ -2658,21 +2658,21 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="60">
         <v>0.76</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="58"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
       <c r="Q13" s="1" t="s">
         <v>137</v>
       </c>
@@ -2682,67 +2682,67 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G14" s="8"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
       <c r="Q14" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
-      <c r="Q16" s="39" t="s">
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="Q16" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
       <c r="Q17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2754,20 +2754,20 @@
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
       <c r="Q18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="56" t="s">
+      <c r="W18" s="44" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2775,57 +2775,57 @@
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
       <c r="G19" s="8">
         <v>2012</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="79"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
       <c r="Q19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X19" s="56"/>
+      <c r="X19" s="44"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G20" s="8"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="X20" s="56"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="X20" s="44"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G21" s="8">
         <v>2009</v>
       </c>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
-      <c r="X21" s="56"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="X21" s="44"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="G22" s="9"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -2839,20 +2839,20 @@
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="66">
         <v>2012</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="62" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2860,25 +2860,25 @@
       <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="79">
         <v>45444</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="66">
         <f>+'Financial Model'!K50</f>
         <v>103</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
@@ -2897,73 +2897,73 @@
       <c r="C30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="76"/>
+      <c r="D30" s="62"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="68">
         <f>C6/'Financial Model'!K88</f>
         <v>1.2244021194329087E-2</v>
       </c>
-      <c r="D35" s="71"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="68">
         <f>+C8/('Financial Model'!K13*Main!C13)</f>
         <v>3.110840911014797</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="68">
         <f>+C12/('Financial Model'!K13*Main!C13)</f>
         <v>2.9337073130156908</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="68">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
         <v>15.061074686431013</v>
       </c>
-      <c r="D38" s="71"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="68">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
         <v>24.698169348715048</v>
       </c>
-      <c r="D39" s="71"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
@@ -2982,6 +2982,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -2993,18 +3001,10 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3019,11 +3019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18B329-9CBE-49D8-B2AA-D4DBC0BF2B3C}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3036,7 +3036,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -3067,10 +3067,10 @@
     <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="E2" s="29"/>
-      <c r="I2" s="44">
+      <c r="I2" s="32">
         <v>44561</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="32">
         <v>44926</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -3081,63 +3081,63 @@
       <c r="A3" s="19"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="64" t="s">
+    <row r="4" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="I4" s="66">
+      <c r="E4" s="53"/>
+      <c r="I4" s="54">
         <v>75.173000000000002</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="54">
         <v>64.546000000000006</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="54">
         <v>104.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="I5" s="66">
+      <c r="E5" s="53"/>
+      <c r="I5" s="54">
         <v>12.337</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="54">
         <v>30.446999999999999</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="54">
         <v>45.277999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="I6" s="66">
+      <c r="E6" s="53"/>
+      <c r="I6" s="54">
         <v>22.186</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="54">
         <v>49.491999999999997</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="54">
         <v>60.317</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="I7" s="66">
+      <c r="E7" s="53"/>
+      <c r="I7" s="54">
         <v>30.890999999999998</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="54">
         <v>43.374000000000002</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="54">
         <v>55.451999999999998</v>
       </c>
     </row>
@@ -3145,74 +3145,74 @@
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="I8" s="67" t="s">
+      <c r="E8" s="31"/>
+      <c r="I8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="I9" s="66">
+      <c r="E9" s="53"/>
+      <c r="I9" s="54">
         <v>83.522999999999996</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="54">
         <v>150.065</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="54">
         <v>212.279</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="64" t="s">
+    <row r="10" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="I10" s="66">
+      <c r="E10" s="53"/>
+      <c r="I10" s="54">
         <v>26.780999999999999</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="54">
         <v>9.5730000000000004</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="54">
         <v>8.7870000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="I11" s="66">
+      <c r="E11" s="53"/>
+      <c r="I11" s="54">
         <v>28.062999999999999</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="54">
         <v>26.591000000000001</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="54">
         <v>43.484000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="I12" s="66">
+      <c r="E12" s="53"/>
+      <c r="I12" s="54">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="54">
         <v>1.63</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="54">
         <v>1.2470000000000001</v>
       </c>
     </row>
@@ -3220,14 +3220,14 @@
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="I13" s="46">
+      <c r="E13" s="31"/>
+      <c r="I13" s="34">
         <v>140.58699999999999</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="34">
         <v>187.85900000000001</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="34">
         <v>265.79700000000003</v>
       </c>
     </row>
@@ -3235,13 +3235,13 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="35">
         <v>98.67</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="35">
         <v>145.57900000000001</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="35">
         <v>199.84200000000001</v>
       </c>
     </row>
@@ -3249,16 +3249,16 @@
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="I15" s="46">
+      <c r="E15" s="31"/>
+      <c r="I15" s="34">
         <f>+I13-I14</f>
         <v>41.916999999999987</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="34">
         <f>+J13-J14</f>
         <v>42.28</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="34">
         <f>+K13-K14</f>
         <v>65.955000000000013</v>
       </c>
@@ -3267,13 +3267,13 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="35">
         <v>11.792999999999999</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="35">
         <v>13.794</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="35">
         <v>17.649999999999999</v>
       </c>
     </row>
@@ -3281,13 +3281,13 @@
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="35">
         <v>11.124000000000001</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="35">
         <v>9.2509999999999994</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="35">
         <v>10.582000000000001</v>
       </c>
     </row>
@@ -3295,13 +3295,13 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="35">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="35">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="35">
         <v>-0.191</v>
       </c>
     </row>
@@ -3309,13 +3309,13 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="35">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="35">
         <v>0</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3323,16 +3323,16 @@
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="I20" s="46">
+      <c r="E20" s="31"/>
+      <c r="I20" s="34">
         <f t="shared" ref="I20:J20" si="0">+I15-I16-I17+I18+I19</f>
         <v>18.764999999999986</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="34">
         <f t="shared" si="0"/>
         <v>20.067999999999998</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="34">
         <f>+K15-K16-K17+K18+K19</f>
         <v>37.532000000000011</v>
       </c>
@@ -3341,13 +3341,13 @@
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="35">
         <v>0</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="35">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="35">
         <v>1.4430000000000001</v>
       </c>
     </row>
@@ -3355,13 +3355,13 @@
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="35">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="35">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="35">
         <v>0.77900000000000003</v>
       </c>
     </row>
@@ -3369,15 +3369,15 @@
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="35">
         <f t="shared" ref="I23:J23" si="1">+I20+I21-I22</f>
         <v>18.472999999999985</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="35">
         <f t="shared" si="1"/>
         <v>20.087999999999997</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="35">
         <f>+K20+K21-K22</f>
         <v>38.196000000000005</v>
       </c>
@@ -3386,13 +3386,13 @@
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="35">
         <v>3.6219999999999999</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="35">
         <v>3.0209999999999999</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="35">
         <v>6.6239999999999997</v>
       </c>
     </row>
@@ -3400,208 +3400,208 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="I25" s="46">
+      <c r="E25" s="31"/>
+      <c r="I25" s="34">
         <f t="shared" ref="I25:J25" si="2">+I23-I24</f>
         <v>14.850999999999985</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="34">
         <f t="shared" si="2"/>
         <v>17.066999999999997</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="34">
         <f>+K23-K24</f>
         <v>31.572000000000006</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="I26" s="52">
+      <c r="E26" s="41"/>
+      <c r="I26" s="40">
         <f>I25/I27</f>
         <v>0.14404182266105395</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="40">
         <f>J25/J27</f>
         <v>0.15525193075656546</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="40">
         <f>K25/K27</f>
         <v>0.28384428661332378</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="I27" s="47">
+      <c r="E27" s="42"/>
+      <c r="I27" s="35">
         <v>103.102</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="35">
         <v>109.931</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="35">
         <v>111.23</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="48" t="s">
+    <row r="30" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="I30" s="50" t="s">
+      <c r="E30" s="37"/>
+      <c r="I30" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="36">
         <f>J13/I13-1</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="36">
         <f>K13/J13-1</f>
         <v>0.41487498602675421</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="I31" s="50" t="s">
+      <c r="E31" s="57"/>
+      <c r="I31" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="68">
-        <f>J4/I4-1</f>
+      <c r="J31" s="56">
+        <f t="shared" ref="J31:K34" si="3">J4/I4-1</f>
         <v>-0.1413672462187221</v>
       </c>
-      <c r="K31" s="68">
-        <f>K4/J4-1</f>
+      <c r="K31" s="56">
+        <f t="shared" si="3"/>
         <v>0.62287360951879256</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="I32" s="50" t="s">
+      <c r="E32" s="57"/>
+      <c r="I32" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="68">
-        <f>J5/I5-1</f>
+      <c r="J32" s="56">
+        <f t="shared" si="3"/>
         <v>1.4679419632001296</v>
       </c>
-      <c r="K32" s="68">
-        <f>K5/J5-1</f>
+      <c r="K32" s="56">
+        <f t="shared" si="3"/>
         <v>0.48710874634610968</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="I33" s="50" t="s">
+      <c r="E33" s="57"/>
+      <c r="I33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="68">
-        <f>J6/I6-1</f>
+      <c r="J33" s="56">
+        <f t="shared" si="3"/>
         <v>1.2307761651491931</v>
       </c>
-      <c r="K33" s="68">
-        <f>K6/J6-1</f>
+      <c r="K33" s="56">
+        <f t="shared" si="3"/>
         <v>0.21872221773215883</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="64" t="s">
+    <row r="34" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="I34" s="50" t="s">
+      <c r="E34" s="57"/>
+      <c r="I34" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="68">
-        <f>J7/I7-1</f>
+      <c r="J34" s="56">
+        <f t="shared" si="3"/>
         <v>0.40409828105273404</v>
       </c>
-      <c r="K34" s="68">
-        <f>K7/J7-1</f>
+      <c r="K34" s="56">
+        <f t="shared" si="3"/>
         <v>0.2784617512795684</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="75" t="s">
+    <row r="35" spans="2:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="E35" s="57"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="68">
-        <f>J9/I9-1</f>
+      <c r="J36" s="56">
+        <f t="shared" ref="J36:K39" si="4">J9/I9-1</f>
         <v>0.79669073189420891</v>
       </c>
-      <c r="K36" s="68">
-        <f>K9/J9-1</f>
+      <c r="K36" s="56">
+        <f t="shared" si="4"/>
         <v>0.41458034851564318</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="68">
-        <f>J10/I10-1</f>
+      <c r="J37" s="56">
+        <f t="shared" si="4"/>
         <v>-0.6425450879354766</v>
       </c>
-      <c r="K37" s="68">
-        <f>K10/J10-1</f>
+      <c r="K37" s="56">
+        <f t="shared" si="4"/>
         <v>-8.2105922908179196E-2</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="68">
-        <f>J11/I11-1</f>
+      <c r="J38" s="56">
+        <f t="shared" si="4"/>
         <v>-5.2453408402522772E-2</v>
       </c>
-      <c r="K38" s="68">
-        <f>K11/J11-1</f>
+      <c r="K38" s="56">
+        <f t="shared" si="4"/>
         <v>0.63529013576021964</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="68">
-        <f>J12/I12-1</f>
+      <c r="J39" s="56">
+        <f t="shared" si="4"/>
         <v>-0.26576576576576583</v>
       </c>
-      <c r="K39" s="68">
-        <f>K12/J12-1</f>
+      <c r="K39" s="56">
+        <f t="shared" si="4"/>
         <v>-0.2349693251533741</v>
       </c>
     </row>
@@ -3609,13 +3609,13 @@
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="38" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3623,15 +3623,15 @@
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="39">
         <f>I15/I13</f>
         <v>0.29815701309509407</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="39">
         <f>J15/J13</f>
         <v>0.22506241383165032</v>
       </c>
-      <c r="K42" s="51">
+      <c r="K42" s="39">
         <f>K15/K13</f>
         <v>0.24814049819975398</v>
       </c>
@@ -3640,15 +3640,15 @@
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="39">
         <f>I20/I13</f>
         <v>0.13347606819976235</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="39">
         <f>J20/J13</f>
         <v>0.10682479945065181</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="39">
         <f>K20/K13</f>
         <v>0.14120550645793598</v>
       </c>
@@ -3657,15 +3657,15 @@
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="39">
         <f>I25/I13</f>
         <v>0.10563565621287876</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="39">
         <f>J25/J13</f>
         <v>9.0850052432941711E-2</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="39">
         <f>K25/K13</f>
         <v>0.11878237903362342</v>
       </c>
@@ -3674,21 +3674,21 @@
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="51">
-        <f t="shared" ref="I45:K45" si="3">I24/I23</f>
+      <c r="I45" s="39">
+        <f t="shared" ref="I45:J45" si="5">I24/I23</f>
         <v>0.19606993991230459</v>
       </c>
-      <c r="J45" s="51">
-        <f t="shared" si="3"/>
+      <c r="J45" s="39">
+        <f t="shared" si="5"/>
         <v>0.1503882915173238</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="39">
         <f>K24/K23</f>
         <v>0.17342130065975492</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="43" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       <c r="B50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="31"/>
       <c r="I50" s="2">
         <f>SUM(I51:I56)</f>
         <v>85</v>
@@ -3710,115 +3710,115 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+    <row r="51" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="I51" s="58">
+      <c r="E51" s="47"/>
+      <c r="I51" s="46">
         <v>39</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="46">
         <v>44</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="46">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+    <row r="52" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="I52" s="58">
+      <c r="E52" s="47"/>
+      <c r="I52" s="46">
         <v>14</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="46">
         <v>16</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="46">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="57" t="s">
+    <row r="53" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="I53" s="58">
+      <c r="E53" s="47"/>
+      <c r="I53" s="46">
         <v>8</v>
       </c>
-      <c r="J53" s="58">
+      <c r="J53" s="46">
         <v>10</v>
       </c>
-      <c r="K53" s="58">
+      <c r="K53" s="46">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="57" t="s">
+    <row r="54" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="59"/>
-      <c r="I54" s="58">
+      <c r="E54" s="47"/>
+      <c r="I54" s="46">
         <v>10</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="46">
         <v>10</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57" t="s">
+    <row r="55" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="I55" s="58">
+      <c r="E55" s="47"/>
+      <c r="I55" s="46">
         <v>10</v>
       </c>
-      <c r="J55" s="58">
+      <c r="J55" s="46">
         <v>12</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="46">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="57" t="s">
+    <row r="56" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="59"/>
-      <c r="I56" s="58">
+      <c r="E56" s="47"/>
+      <c r="I56" s="46">
         <v>4</v>
       </c>
-      <c r="J56" s="58">
+      <c r="J56" s="46">
         <v>4</v>
       </c>
-      <c r="K56" s="58">
+      <c r="K56" s="46">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="60" t="s">
+    <row r="57" spans="2:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="I57" s="50" t="s">
+      <c r="E57" s="49"/>
+      <c r="I57" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="60">
+      <c r="J57" s="48">
         <f>J50/I50-1</f>
         <v>0.12941176470588234</v>
       </c>
-      <c r="K57" s="60">
+      <c r="K57" s="48">
         <f>K50/J50-1</f>
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="43" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3826,13 +3826,13 @@
       <c r="B62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="35">
         <v>25.806999999999999</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="35">
         <v>35.534999999999997</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="35">
         <v>58.634</v>
       </c>
     </row>
@@ -3840,13 +3840,13 @@
       <c r="B63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I63" s="47">
+      <c r="I63" s="35">
         <v>3.5590000000000002</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J63" s="35">
         <v>3.7210000000000001</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="35">
         <v>5.0780000000000003</v>
       </c>
     </row>
@@ -3854,13 +3854,13 @@
       <c r="B64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I64" s="47">
+      <c r="I64" s="35">
         <v>1.679</v>
       </c>
-      <c r="J64" s="47">
+      <c r="J64" s="35">
         <v>1.387</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="35">
         <v>6.7190000000000003</v>
       </c>
     </row>
@@ -3868,13 +3868,13 @@
       <c r="B65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I65" s="47">
+      <c r="I65" s="35">
         <v>0</v>
       </c>
-      <c r="J65" s="47">
+      <c r="J65" s="35">
         <v>0</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="35">
         <v>2.698</v>
       </c>
     </row>
@@ -3882,15 +3882,15 @@
       <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="47">
-        <f t="shared" ref="I66:J66" si="4">+SUM(I62:I65)</f>
+      <c r="I66" s="35">
+        <f t="shared" ref="I66:J66" si="6">+SUM(I62:I65)</f>
         <v>31.044999999999998</v>
       </c>
-      <c r="J66" s="47">
-        <f t="shared" si="4"/>
+      <c r="J66" s="35">
+        <f t="shared" si="6"/>
         <v>40.643000000000001</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K66" s="35">
         <f>+SUM(K62:K65)</f>
         <v>73.128999999999991</v>
       </c>
@@ -3899,14 +3899,14 @@
       <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="I67" s="46">
+      <c r="E67" s="31"/>
+      <c r="I67" s="34">
         <v>40.576000000000001</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="34">
         <v>47.889000000000003</v>
       </c>
-      <c r="K67" s="46">
+      <c r="K67" s="34">
         <v>108.057</v>
       </c>
     </row>
@@ -3914,13 +3914,13 @@
       <c r="B68" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I68" s="47">
+      <c r="I68" s="35">
         <v>20.734000000000002</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="35">
         <v>26.027000000000001</v>
       </c>
-      <c r="K68" s="47">
+      <c r="K68" s="35">
         <v>39.76</v>
       </c>
     </row>
@@ -3928,14 +3928,14 @@
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="43"/>
-      <c r="I69" s="46">
+      <c r="E69" s="31"/>
+      <c r="I69" s="34">
         <v>34.429000000000002</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="34">
         <v>32.843000000000004</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="34">
         <v>42.207000000000001</v>
       </c>
     </row>
@@ -3943,13 +3943,13 @@
       <c r="B70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I70" s="47">
+      <c r="I70" s="35">
         <v>0</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="35">
         <v>0</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="35">
         <v>2.2010000000000001</v>
       </c>
     </row>
@@ -3957,35 +3957,35 @@
       <c r="B71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="47">
-        <f t="shared" ref="I71:J71" si="5">+I66+SUM(I67:I70)</f>
+      <c r="I71" s="35">
+        <f t="shared" ref="I71:J71" si="7">+I66+SUM(I67:I70)</f>
         <v>126.78400000000001</v>
       </c>
-      <c r="J71" s="47">
-        <f t="shared" si="5"/>
+      <c r="J71" s="35">
+        <f t="shared" si="7"/>
         <v>147.40199999999999</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K71" s="35">
         <f>+K66+SUM(K67:K70)</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="47">
+      <c r="I73" s="35">
         <v>22.542999999999999</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J73" s="35">
         <v>26.494</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K73" s="35">
         <v>81.19</v>
       </c>
     </row>
@@ -3993,13 +3993,13 @@
       <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I74" s="47">
+      <c r="I74" s="35">
         <v>0</v>
       </c>
-      <c r="J74" s="47">
+      <c r="J74" s="35">
         <v>0</v>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="35">
         <v>0.44500000000000001</v>
       </c>
     </row>
@@ -4007,13 +4007,13 @@
       <c r="B75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I75" s="47">
+      <c r="I75" s="35">
         <v>0.16500000000000001</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="35">
         <v>0.26300000000000001</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="35">
         <v>1.252</v>
       </c>
     </row>
@@ -4021,13 +4021,13 @@
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I76" s="47">
+      <c r="I76" s="35">
         <v>0.39</v>
       </c>
-      <c r="J76" s="47">
+      <c r="J76" s="35">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4035,15 +4035,15 @@
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I77" s="47">
-        <f t="shared" ref="I77:J77" si="6">SUM(I73:I76)</f>
+      <c r="I77" s="35">
+        <f t="shared" ref="I77:J77" si="8">SUM(I73:I76)</f>
         <v>23.097999999999999</v>
       </c>
-      <c r="J77" s="47">
-        <f t="shared" si="6"/>
+      <c r="J77" s="35">
+        <f t="shared" si="8"/>
         <v>27.519000000000002</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="35">
         <f>SUM(K73:K76)</f>
         <v>82.886999999999986</v>
       </c>
@@ -4052,13 +4052,13 @@
       <c r="B78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="47">
+      <c r="I78" s="35">
         <v>1.9510000000000001</v>
       </c>
-      <c r="J78" s="47">
+      <c r="J78" s="35">
         <v>1.359</v>
       </c>
-      <c r="K78" s="47">
+      <c r="K78" s="35">
         <v>5.8280000000000003</v>
       </c>
     </row>
@@ -4066,13 +4066,13 @@
       <c r="B79" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I79" s="47">
+      <c r="I79" s="35">
         <v>6.2140000000000004</v>
       </c>
-      <c r="J79" s="47">
+      <c r="J79" s="35">
         <v>7.673</v>
       </c>
-      <c r="K79" s="47">
+      <c r="K79" s="35">
         <v>10.244</v>
       </c>
     </row>
@@ -4080,13 +4080,13 @@
       <c r="B80" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I80" s="47">
+      <c r="I80" s="35">
         <v>0</v>
       </c>
-      <c r="J80" s="47">
+      <c r="J80" s="35">
         <v>3.7</v>
       </c>
-      <c r="K80" s="47">
+      <c r="K80" s="35">
         <v>6.4249999999999998</v>
       </c>
     </row>
@@ -4094,13 +4094,13 @@
       <c r="B81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="35">
         <v>0</v>
       </c>
-      <c r="J81" s="47">
+      <c r="J81" s="35">
         <v>0</v>
       </c>
-      <c r="K81" s="47">
+      <c r="K81" s="35">
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -4108,36 +4108,36 @@
       <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="I82" s="46">
-        <f t="shared" ref="I82:J82" si="7">SUM(I77:I81)</f>
+      <c r="E82" s="31"/>
+      <c r="I82" s="34">
+        <f t="shared" ref="I82:J82" si="9">SUM(I77:I81)</f>
         <v>31.262999999999998</v>
       </c>
-      <c r="J82" s="46">
-        <f t="shared" si="7"/>
+      <c r="J82" s="34">
+        <f t="shared" si="9"/>
         <v>40.251000000000005</v>
       </c>
-      <c r="K82" s="46">
+      <c r="K82" s="34">
         <f>SUM(K77:K81)</f>
         <v>106.13999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="47">
+      <c r="I84" s="35">
         <v>95.521000000000001</v>
       </c>
-      <c r="J84" s="47">
+      <c r="J84" s="35">
         <v>107.151</v>
       </c>
-      <c r="K84" s="47">
+      <c r="K84" s="35">
         <v>159.214</v>
       </c>
     </row>
@@ -4145,36 +4145,36 @@
       <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I85" s="47">
+      <c r="I85" s="35">
         <f>+I84+I82</f>
         <v>126.78399999999999</v>
       </c>
-      <c r="J85" s="47">
+      <c r="J85" s="35">
         <f>+J84+J82</f>
         <v>147.40199999999999</v>
       </c>
-      <c r="K85" s="47">
+      <c r="K85" s="35">
         <f>+K84+K82</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I86" s="47"/>
-      <c r="K86" s="47"/>
+      <c r="I86" s="35"/>
+      <c r="K86" s="35"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I87" s="47">
-        <f t="shared" ref="I87:K87" si="8">I71-I82</f>
+      <c r="I87" s="35">
+        <f t="shared" ref="I87:J87" si="10">I71-I82</f>
         <v>95.521000000000015</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107.15099999999998</v>
       </c>
-      <c r="K87" s="47">
+      <c r="K87" s="35">
         <f>K71-K82</f>
         <v>159.214</v>
       </c>
@@ -4183,15 +4183,15 @@
       <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="47">
-        <f t="shared" ref="I88:J88" si="9">I87+I82</f>
+      <c r="I88" s="35">
+        <f t="shared" ref="I88:J88" si="11">I87+I82</f>
         <v>126.78400000000002</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>147.40199999999999</v>
       </c>
-      <c r="K88" s="47">
+      <c r="K88" s="35">
         <f>K87+K82</f>
         <v>265.35399999999998</v>
       </c>
@@ -4200,15 +4200,15 @@
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="47">
-        <f t="shared" ref="I90:K90" si="10">+I69</f>
+      <c r="I90" s="35">
+        <f t="shared" ref="I90:J90" si="12">+I69</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J90" s="47">
-        <f t="shared" si="10"/>
+      <c r="J90" s="35">
+        <f t="shared" si="12"/>
         <v>32.843000000000004</v>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="35">
         <f>+K69</f>
         <v>42.207000000000001</v>
       </c>
@@ -4217,15 +4217,15 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="47">
-        <f t="shared" ref="I91:K91" si="11">+I80</f>
+      <c r="I91" s="35">
+        <f t="shared" ref="I91:J91" si="13">+I80</f>
         <v>0</v>
       </c>
-      <c r="J91" s="47">
-        <f t="shared" si="11"/>
+      <c r="J91" s="35">
+        <f t="shared" si="13"/>
         <v>3.7</v>
       </c>
-      <c r="K91" s="47">
+      <c r="K91" s="35">
         <f>+K80</f>
         <v>6.4249999999999998</v>
       </c>
@@ -4234,16 +4234,16 @@
       <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="I92" s="46">
-        <f t="shared" ref="I92:J92" si="12">I90-I91</f>
+      <c r="E92" s="31"/>
+      <c r="I92" s="34">
+        <f t="shared" ref="I92:J92" si="14">I90-I91</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J92" s="46">
-        <f t="shared" si="12"/>
+      <c r="J92" s="34">
+        <f t="shared" si="14"/>
         <v>29.143000000000004</v>
       </c>
-      <c r="K92" s="46">
+      <c r="K92" s="34">
         <f>K90-K91</f>
         <v>35.782000000000004</v>
       </c>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B1336-28E6-474A-AF0D-0190664D256F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8FCD3-7395-487A-BC00-6490D45C0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="8475" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <t>£RPI</t>
   </si>
@@ -481,6 +490,9 @@
   </si>
   <si>
     <t>Chip manufacturing (supply, prices, Taiwan)</t>
+  </si>
+  <si>
+    <t>H224</t>
   </si>
 </sst>
 </file>
@@ -490,9 +502,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +612,20 @@
       <b/>
       <i/>
       <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -773,12 +799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,7 +835,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -835,46 +860,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -912,22 +898,88 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2396,7 +2448,7 @@
   <dimension ref="B2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2408,59 +2460,59 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="Q5" s="38" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="Q5" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="X5" s="26" t="s">
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2468,48 +2520,49 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
-        <v>3.2490000000000001</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="G6" s="77">
+      <c r="C6" s="1">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="G6" s="61">
         <v>45536</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
-      <c r="Q6" s="39" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="60"/>
+      <c r="Q6" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
+        <f>+'Financial Model'!F27</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="13" t="str">
         <f>+$C$30</f>
-        <v>FY23</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="79"/>
+        <v>H124</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="60"/>
       <c r="Q7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2521,23 +2574,23 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>628.40765803500005</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="G8" s="77">
+        <v>717.95913408000001</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="G8" s="61">
         <v>45505</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="60"/>
       <c r="Q8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2549,22 +2602,22 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16">
-        <f>+'Financial Model'!K90</f>
-        <v>42.207000000000001</v>
-      </c>
-      <c r="D9" s="14" t="str">
+      <c r="C9" s="15">
+        <f>+'Financial Model'!F90</f>
+        <v>40.4</v>
+      </c>
+      <c r="D9" s="13" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$30</f>
-        <v>FY23</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+        <v>H124</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="60"/>
       <c r="Q9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2573,26 +2626,26 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
-        <f>+'Financial Model'!K91</f>
-        <v>6.4249999999999998</v>
-      </c>
-      <c r="D10" s="14" t="str">
+      <c r="C10" s="15">
+        <f>+'Financial Model'!F91</f>
+        <v>5.8</v>
+      </c>
+      <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>FY23</v>
-      </c>
-      <c r="G10" s="77">
+        <v>H124</v>
+      </c>
+      <c r="G10" s="61">
         <v>45444</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="60"/>
       <c r="Q10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2607,22 +2660,22 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>35.782000000000004</v>
-      </c>
-      <c r="D11" s="14" t="str">
+        <v>34.6</v>
+      </c>
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>FY23</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+        <v>H124</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="60"/>
       <c r="Q11" s="1" t="s">
         <v>127</v>
       </c>
@@ -2631,22 +2684,22 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>592.62565803500001</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+        <v>683.35913407999999</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="60"/>
       <c r="Q12" s="1" t="s">
         <v>128</v>
       </c>
@@ -2658,21 +2711,21 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="58">
         <v>0.76</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="D13" s="56"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="60"/>
       <c r="Q13" s="1" t="s">
         <v>137</v>
       </c>
@@ -2681,68 +2734,68 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G14" s="8"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="60"/>
       <c r="Q14" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="60"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
-      <c r="Q16" s="39" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="60"/>
+      <c r="Q16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="60"/>
       <c r="Q17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2751,237 +2804,247 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="60"/>
       <c r="Q18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="56" t="s">
+      <c r="W18" s="42" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="G19" s="8">
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="G19" s="7">
         <v>2012</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="79"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="60"/>
       <c r="Q19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X19" s="56"/>
+      <c r="X19" s="42"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G20" s="8"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="X20" s="56"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="60"/>
+      <c r="X20" s="42"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>2009</v>
       </c>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
-      <c r="X21" s="56"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="60"/>
+      <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="63">
         <v>2012</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="62" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="76">
         <v>45444</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="31">
-        <f>+'Financial Model'!K50</f>
-        <v>103</v>
-      </c>
-      <c r="D27" s="32"/>
+      <c r="C27" s="63">
+        <f>+'Financial Model'!F50</f>
+        <v>115</v>
+      </c>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="76"/>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="77">
+        <v>45559</v>
+      </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="70">
-        <f>C6/'Financial Model'!K88</f>
-        <v>1.2244021194329087E-2</v>
-      </c>
-      <c r="D35" s="71"/>
+      <c r="C35" s="65">
+        <f>C6/'Financial Model'!F88</f>
+        <v>3.5613052285714284</v>
+      </c>
+      <c r="D35" s="66"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="70">
-        <f>+C8/('Financial Model'!K13*Main!C13)</f>
-        <v>3.110840911014797</v>
-      </c>
-      <c r="D36" s="71"/>
+      <c r="C36" s="65">
+        <f>C6/(SUM('Financial Model'!E13:F13)*Main!C13)</f>
+        <v>1.5239489063285427E-2</v>
+      </c>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="65">
         <f>+C12/('Financial Model'!K13*Main!C13)</f>
-        <v>2.9337073130156908</v>
-      </c>
-      <c r="D37" s="71"/>
+        <v>3.3828702181304564</v>
+      </c>
+      <c r="D37" s="66"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="65">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>15.061074686431013</v>
-      </c>
-      <c r="D38" s="71"/>
+        <v>17.20735895230284</v>
+      </c>
+      <c r="D38" s="66"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="65">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>24.698169348715048</v>
-      </c>
-      <c r="D39" s="71"/>
+        <v>28.479562757139899</v>
+      </c>
+      <c r="D39" s="66"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -2993,18 +3056,10 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3023,7 +3078,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3031,113 +3086,173 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="30"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="29"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="29"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="E2" s="29"/>
-      <c r="I2" s="44">
+    <row r="2" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="D2" s="82">
+        <v>45107</v>
+      </c>
+      <c r="E2" s="81" t="str">
+        <f>K2</f>
+        <v>31/12/023</v>
+      </c>
+      <c r="F2" s="82">
+        <v>45473</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="I2" s="82">
         <v>44561</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="82">
         <v>44926</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="80" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="64" t="s">
+    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="78">
+        <v>45559</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="I4" s="66">
+      <c r="D4" s="52">
+        <v>27</v>
+      </c>
+      <c r="E4" s="89">
+        <f>K4-D4</f>
+        <v>77.75</v>
+      </c>
+      <c r="F4" s="49">
+        <v>77.7</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="I4" s="52">
         <v>75.173000000000002</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="52">
         <v>64.546000000000006</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="52">
         <v>104.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="I5" s="66">
+      <c r="D5" s="52">
+        <v>19.8</v>
+      </c>
+      <c r="E5" s="89">
+        <f>K5-D5</f>
+        <v>25.477999999999998</v>
+      </c>
+      <c r="F5" s="49">
+        <v>26.7</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="I5" s="52">
         <v>12.337</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="52">
         <v>30.446999999999999</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="52">
         <v>45.277999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="I6" s="66">
+      <c r="D6" s="52">
+        <v>23.4</v>
+      </c>
+      <c r="E6" s="89">
+        <f>K6-D6</f>
+        <v>36.917000000000002</v>
+      </c>
+      <c r="F6" s="49">
+        <v>22.6</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="I6" s="52">
         <v>22.186</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="52">
         <v>49.491999999999997</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="52">
         <v>60.317</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="I7" s="66">
+      <c r="D7" s="52">
+        <f>18.7+0.4</f>
+        <v>19.099999999999998</v>
+      </c>
+      <c r="E7" s="89">
+        <f>K7-D7</f>
+        <v>36.352000000000004</v>
+      </c>
+      <c r="F7" s="85">
+        <v>17</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="I7" s="52">
         <v>30.890999999999998</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="52">
         <v>43.374000000000002</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="52">
         <v>55.451999999999998</v>
       </c>
     </row>
@@ -3145,89 +3260,148 @@
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="I8" s="67" t="s">
+      <c r="D8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="G8" s="30"/>
+      <c r="I8" s="53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="64" t="s">
+      <c r="J8" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="I9" s="66">
+      <c r="D9" s="49">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E9" s="89">
+        <f>K9-D9</f>
+        <v>137.679</v>
+      </c>
+      <c r="F9" s="49">
+        <v>89.5</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="I9" s="52">
         <v>83.522999999999996</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="52">
         <v>150.065</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="52">
         <v>212.279</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="64" t="s">
+    <row r="10" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="I10" s="66">
+      <c r="D10" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="89">
+        <f>K10-D10</f>
+        <v>5.6870000000000012</v>
+      </c>
+      <c r="F10" s="49">
+        <v>10.3</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="I10" s="52">
         <v>26.780999999999999</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="52">
         <v>9.5730000000000004</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="52">
         <v>8.7870000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="I11" s="66">
+      <c r="D11" s="49">
+        <v>11.1</v>
+      </c>
+      <c r="E11" s="89">
+        <f>K11-D11</f>
+        <v>32.384</v>
+      </c>
+      <c r="F11" s="49">
+        <v>43.6</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="I11" s="52">
         <v>28.062999999999999</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="52">
         <v>26.591000000000001</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="52">
         <v>43.484000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="I12" s="66">
+      <c r="D12" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="89">
+        <f>K12-D12</f>
+        <v>0.74700000000000011</v>
+      </c>
+      <c r="F12" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="I12" s="52">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="52">
         <v>1.63</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="52">
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:13" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="I13" s="46">
+      <c r="D13" s="83">
+        <f>SUM(D9:D12)</f>
+        <v>89.299999999999983</v>
+      </c>
+      <c r="E13" s="84">
+        <f>SUM(E9:E12)</f>
+        <v>176.49700000000001</v>
+      </c>
+      <c r="F13" s="83">
+        <f>SUM(F9:F12)</f>
+        <v>144</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="I13" s="83">
         <v>140.58699999999999</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="83">
         <v>187.85900000000001</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="83">
         <v>265.79700000000003</v>
       </c>
     </row>
@@ -3235,13 +3409,23 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="47">
+      <c r="D14" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E14" s="40">
+        <f>K14-D14</f>
+        <v>133.74200000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="I14" s="33">
         <v>98.67</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="33">
         <v>145.57900000000001</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="33">
         <v>199.84200000000001</v>
       </c>
     </row>
@@ -3249,16 +3433,28 @@
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="I15" s="46">
+      <c r="D15" s="32">
+        <f>+D13-D14</f>
+        <v>23.199999999999989</v>
+      </c>
+      <c r="E15" s="90">
+        <f>+E13-E14</f>
+        <v>42.754999999999995</v>
+      </c>
+      <c r="F15" s="32">
+        <f>+F13-F14</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="I15" s="32">
         <f>+I13-I14</f>
         <v>41.916999999999987</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="32">
         <f>+J13-J14</f>
         <v>42.28</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="32">
         <f>+K13-K14</f>
         <v>65.955000000000013</v>
       </c>
@@ -3267,13 +3463,23 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="47">
+      <c r="D16" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" ref="E16:E24" si="0">K16-D16</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="I16" s="33">
         <v>11.792999999999999</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="33">
         <v>13.794</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="33">
         <v>17.649999999999999</v>
       </c>
     </row>
@@ -3281,13 +3487,23 @@
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="47">
+      <c r="D17" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="0"/>
+        <v>5.9820000000000011</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I17" s="33">
         <v>11.124000000000001</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="33">
         <v>9.2509999999999994</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="33">
         <v>10.582000000000001</v>
       </c>
     </row>
@@ -3295,13 +3511,23 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="47">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.191</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="33">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="33">
         <v>-0.191</v>
       </c>
     </row>
@@ -3309,13 +3535,23 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="47">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="33">
         <v>0</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3323,16 +3559,28 @@
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="I20" s="46">
-        <f t="shared" ref="I20:J20" si="0">+I15-I16-I17+I18+I19</f>
+      <c r="D20" s="32">
+        <f t="shared" ref="D20:F20" si="1">+D15-D16-D17+D18+D19</f>
+        <v>10.39999999999999</v>
+      </c>
+      <c r="E20" s="90">
+        <f t="shared" si="1"/>
+        <v>27.131999999999994</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="1"/>
+        <v>11.400000000000002</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="I20" s="32">
+        <f t="shared" ref="I20:J20" si="2">+I15-I16-I17+I18+I19</f>
         <v>18.764999999999986</v>
       </c>
-      <c r="J20" s="46">
-        <f t="shared" si="0"/>
+      <c r="J20" s="32">
+        <f t="shared" si="2"/>
         <v>20.067999999999998</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="32">
         <f>+K15-K16-K17+K18+K19</f>
         <v>37.532000000000011</v>
       </c>
@@ -3341,13 +3589,23 @@
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="47">
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="0"/>
+        <v>0.94300000000000006</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="33">
         <v>0</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="33">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="33">
         <v>1.4430000000000001</v>
       </c>
     </row>
@@ -3355,13 +3613,23 @@
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="47">
+      <c r="D22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="0"/>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I22" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="33">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="33">
         <v>0.77900000000000003</v>
       </c>
     </row>
@@ -3369,15 +3637,27 @@
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="47">
-        <f t="shared" ref="I23:J23" si="1">+I20+I21-I22</f>
+      <c r="D23" s="33">
+        <f t="shared" ref="D23:F23" si="3">+D20+D21-D22</f>
+        <v>10.69999999999999</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="3"/>
+        <v>27.495999999999995</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="3"/>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" ref="I23:J23" si="4">+I20+I21-I22</f>
         <v>18.472999999999985</v>
       </c>
-      <c r="J23" s="47">
-        <f t="shared" si="1"/>
+      <c r="J23" s="33">
+        <f t="shared" si="4"/>
         <v>20.087999999999997</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="33">
         <f>+K20+K21-K22</f>
         <v>38.196000000000005</v>
       </c>
@@ -3386,13 +3666,23 @@
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="47">
+      <c r="D24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="0"/>
+        <v>4.4239999999999995</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I24" s="33">
         <v>3.6219999999999999</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="33">
         <v>3.0209999999999999</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="33">
         <v>6.6239999999999997</v>
       </c>
     </row>
@@ -3400,208 +3690,284 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="I25" s="46">
-        <f t="shared" ref="I25:J25" si="2">+I23-I24</f>
+      <c r="D25" s="32">
+        <f t="shared" ref="D25:F25" si="5">+D23-D24</f>
+        <v>8.4999999999999893</v>
+      </c>
+      <c r="E25" s="90">
+        <f t="shared" si="5"/>
+        <v>23.071999999999996</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="5"/>
+        <v>7.6000000000000023</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="I25" s="32">
+        <f t="shared" ref="I25:J25" si="6">+I23-I24</f>
         <v>14.850999999999985</v>
       </c>
-      <c r="J25" s="46">
-        <f t="shared" si="2"/>
+      <c r="J25" s="32">
+        <f t="shared" si="6"/>
         <v>17.066999999999997</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="32">
         <f>+K23-K24</f>
         <v>31.572000000000006</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="I26" s="52">
+      <c r="D26" s="38">
+        <f>D25/D27</f>
+        <v>4.3946790983348943E-2</v>
+      </c>
+      <c r="E26" s="39">
+        <f>E25/E27</f>
+        <v>0.11928710136092092</v>
+      </c>
+      <c r="F26" s="38">
+        <f>F25/F27</f>
+        <v>3.9293601349817943E-2</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="I26" s="38">
         <f>I25/I27</f>
         <v>0.14404182266105395</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="38">
         <f>J25/J27</f>
         <v>0.15525193075656546</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="38">
         <f>K25/K27</f>
         <v>0.28384428661332378</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
+    <row r="27" spans="2:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="I27" s="47">
+      <c r="D27" s="33">
+        <v>193.41571500000001</v>
+      </c>
+      <c r="E27" s="40">
+        <f>D27</f>
+        <v>193.41571500000001</v>
+      </c>
+      <c r="F27" s="33">
+        <v>193.41571500000001</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="I27" s="86">
         <v>103.102</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="86">
         <v>109.931</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="86">
         <v>111.23</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="48" t="s">
+    <row r="30" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="I30" s="50" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="34">
+        <f>F13/D13-1</f>
+        <v>0.61254199328107539</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="I30" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="34">
         <f>J13/I13-1</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="34">
         <f>K13/J13-1</f>
         <v>0.41487498602675421</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="I31" s="50" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="54">
+        <f>F4/D4-1</f>
+        <v>1.8777777777777778</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="I31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="68">
-        <f>J4/I4-1</f>
+      <c r="J31" s="54">
+        <f t="shared" ref="J31:K34" si="7">J4/I4-1</f>
         <v>-0.1413672462187221</v>
       </c>
-      <c r="K31" s="68">
-        <f>K4/J4-1</f>
+      <c r="K31" s="54">
+        <f t="shared" si="7"/>
         <v>0.62287360951879256</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="I32" s="50" t="s">
+      <c r="E32" s="55"/>
+      <c r="F32" s="54">
+        <f t="shared" ref="F32:F34" si="8">F5/D5-1</f>
+        <v>0.3484848484848484</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="I32" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="68">
-        <f>J5/I5-1</f>
+      <c r="J32" s="54">
+        <f t="shared" si="7"/>
         <v>1.4679419632001296</v>
       </c>
-      <c r="K32" s="68">
-        <f>K5/J5-1</f>
+      <c r="K32" s="54">
+        <f t="shared" si="7"/>
         <v>0.48710874634610968</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="I33" s="50" t="s">
+      <c r="E33" s="55"/>
+      <c r="F33" s="54">
+        <f t="shared" si="8"/>
+        <v>-3.4188034188034067E-2</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="I33" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="68">
-        <f>J6/I6-1</f>
+      <c r="J33" s="54">
+        <f t="shared" si="7"/>
         <v>1.2307761651491931</v>
       </c>
-      <c r="K33" s="68">
-        <f>K6/J6-1</f>
+      <c r="K33" s="54">
+        <f t="shared" si="7"/>
         <v>0.21872221773215883</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="64" t="s">
+    <row r="34" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="I34" s="50" t="s">
+      <c r="E34" s="55"/>
+      <c r="F34" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.10994764397905754</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="I34" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="68">
-        <f>J7/I7-1</f>
+      <c r="J34" s="54">
+        <f t="shared" si="7"/>
         <v>0.40409828105273404</v>
       </c>
-      <c r="K34" s="68">
-        <f>K7/J7-1</f>
+      <c r="K34" s="54">
+        <f t="shared" si="7"/>
         <v>0.2784617512795684</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="75" t="s">
+    <row r="35" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="E35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="F36" s="54">
+        <f>F9/D9-1</f>
+        <v>0.19973190348525471</v>
+      </c>
+      <c r="I36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="68">
-        <f>J9/I9-1</f>
+      <c r="J36" s="54">
+        <f t="shared" ref="J36:K39" si="9">J9/I9-1</f>
         <v>0.79669073189420891</v>
       </c>
-      <c r="K36" s="68">
-        <f>K9/J9-1</f>
+      <c r="K36" s="54">
+        <f t="shared" si="9"/>
         <v>0.41458034851564318</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="F37" s="54">
+        <f t="shared" ref="F37:F39" si="10">F10/D10-1</f>
+        <v>2.3225806451612905</v>
+      </c>
+      <c r="I37" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="68">
-        <f>J10/I10-1</f>
+      <c r="J37" s="54">
+        <f t="shared" si="9"/>
         <v>-0.6425450879354766</v>
       </c>
-      <c r="K37" s="68">
-        <f>K10/J10-1</f>
+      <c r="K37" s="54">
+        <f t="shared" si="9"/>
         <v>-8.2105922908179196E-2</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="F38" s="54">
+        <f t="shared" si="10"/>
+        <v>2.9279279279279282</v>
+      </c>
+      <c r="I38" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="68">
-        <f>J11/I11-1</f>
+      <c r="J38" s="54">
+        <f t="shared" si="9"/>
         <v>-5.2453408402522772E-2</v>
       </c>
-      <c r="K38" s="68">
-        <f>K11/J11-1</f>
+      <c r="K38" s="54">
+        <f t="shared" si="9"/>
         <v>0.63529013576021964</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="F39" s="54">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I39" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="68">
-        <f>J12/I12-1</f>
+      <c r="J39" s="54">
+        <f t="shared" si="9"/>
         <v>-0.26576576576576583</v>
       </c>
-      <c r="K39" s="68">
-        <f>K12/J12-1</f>
+      <c r="K39" s="54">
+        <f t="shared" si="9"/>
         <v>-0.2349693251533741</v>
       </c>
     </row>
@@ -3609,13 +3975,13 @@
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3623,15 +3989,27 @@
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="51">
+      <c r="D42" s="37">
+        <f>D15/D13</f>
+        <v>0.25979843225083976</v>
+      </c>
+      <c r="E42" s="91">
+        <f>E15/E13</f>
+        <v>0.2422420777690272</v>
+      </c>
+      <c r="F42" s="37">
+        <f>F15/F13</f>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="I42" s="37">
         <f>I15/I13</f>
         <v>0.29815701309509407</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="37">
         <f>J15/J13</f>
         <v>0.22506241383165032</v>
       </c>
-      <c r="K42" s="51">
+      <c r="K42" s="37">
         <f>K15/K13</f>
         <v>0.24814049819975398</v>
       </c>
@@ -3640,15 +4018,27 @@
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="51">
+      <c r="D43" s="37">
+        <f>D20/D13</f>
+        <v>0.11646136618141088</v>
+      </c>
+      <c r="E43" s="91">
+        <f>E20/E13</f>
+        <v>0.1537249924927902</v>
+      </c>
+      <c r="F43" s="37">
+        <f>F20/F13</f>
+        <v>7.9166666666666677E-2</v>
+      </c>
+      <c r="I43" s="37">
         <f>I20/I13</f>
         <v>0.13347606819976235</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="37">
         <f>J20/J13</f>
         <v>0.10682479945065181</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="37">
         <f>K20/K13</f>
         <v>0.14120550645793598</v>
       </c>
@@ -3657,15 +4047,27 @@
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="51">
+      <c r="D44" s="37">
+        <f>D25/D13</f>
+        <v>9.5184770436730015E-2</v>
+      </c>
+      <c r="E44" s="91">
+        <f>E25/E13</f>
+        <v>0.13072176864195989</v>
+      </c>
+      <c r="F44" s="37">
+        <f>F25/F13</f>
+        <v>5.2777777777777792E-2</v>
+      </c>
+      <c r="I44" s="37">
         <f>I25/I13</f>
         <v>0.10563565621287876</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="37">
         <f>J25/J13</f>
         <v>9.0850052432941711E-2</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="37">
         <f>K25/K13</f>
         <v>0.11878237903362342</v>
       </c>
@@ -3674,21 +4076,33 @@
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="51">
-        <f t="shared" ref="I45:K45" si="3">I24/I23</f>
+      <c r="D45" s="37">
+        <f t="shared" ref="D45" si="11">D24/D23</f>
+        <v>0.20560747663551421</v>
+      </c>
+      <c r="E45" s="91">
+        <f t="shared" ref="E45:F45" si="12">E24/E23</f>
+        <v>0.16089613034623218</v>
+      </c>
+      <c r="F45" s="37">
+        <f t="shared" si="12"/>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="I45" s="37">
+        <f t="shared" ref="I45:J45" si="13">I24/I23</f>
         <v>0.19606993991230459</v>
       </c>
-      <c r="J45" s="51">
-        <f t="shared" si="3"/>
+      <c r="J45" s="37">
+        <f t="shared" si="13"/>
         <v>0.1503882915173238</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="37">
         <f>K24/K23</f>
         <v>0.17342130065975492</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="41" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3696,7 +4110,19 @@
       <c r="B50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="D50" s="2">
+        <f>SUM(D51:D56)</f>
+        <v>95</v>
+      </c>
+      <c r="E50" s="30">
+        <f>K50</f>
+        <v>103</v>
+      </c>
+      <c r="F50" s="2">
+        <f>SUM(F51:F56)</f>
+        <v>115</v>
+      </c>
+      <c r="G50" s="30"/>
       <c r="I50" s="2">
         <f>SUM(I51:I56)</f>
         <v>85</v>
@@ -3710,115 +4136,180 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+    <row r="51" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="I51" s="58">
+      <c r="D51" s="44">
+        <v>46</v>
+      </c>
+      <c r="E51" s="45">
+        <f>K51</f>
+        <v>50</v>
+      </c>
+      <c r="F51" s="44">
+        <v>61</v>
+      </c>
+      <c r="G51" s="45"/>
+      <c r="I51" s="44">
         <v>39</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="44">
         <v>44</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="44">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+    <row r="52" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="I52" s="58">
+      <c r="D52" s="44">
+        <v>19</v>
+      </c>
+      <c r="E52" s="45">
+        <f>K52</f>
+        <v>21</v>
+      </c>
+      <c r="F52" s="44">
+        <v>21</v>
+      </c>
+      <c r="G52" s="45"/>
+      <c r="I52" s="44">
         <v>14</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="44">
         <v>16</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="44">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="57" t="s">
+    <row r="53" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="I53" s="58">
+      <c r="D53" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="45">
+        <f>K53</f>
+        <v>11</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="45"/>
+      <c r="I53" s="44">
         <v>8</v>
       </c>
-      <c r="J53" s="58">
+      <c r="J53" s="44">
         <v>10</v>
       </c>
-      <c r="K53" s="58">
+      <c r="K53" s="44">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="57" t="s">
+    <row r="54" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="59"/>
-      <c r="I54" s="58">
+      <c r="D54" s="44">
+        <v>16</v>
+      </c>
+      <c r="E54" s="45">
+        <f>K54</f>
+        <v>5</v>
+      </c>
+      <c r="F54" s="44">
+        <v>14</v>
+      </c>
+      <c r="G54" s="45"/>
+      <c r="I54" s="44">
         <v>10</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="44">
         <v>10</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="44">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57" t="s">
+    <row r="55" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="I55" s="58">
+      <c r="D55" s="44">
+        <v>11</v>
+      </c>
+      <c r="E55" s="45">
+        <f>K55</f>
+        <v>12</v>
+      </c>
+      <c r="F55" s="44">
+        <v>15</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="I55" s="44">
         <v>10</v>
       </c>
-      <c r="J55" s="58">
+      <c r="J55" s="44">
         <v>12</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="44">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="57" t="s">
+    <row r="56" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="59"/>
-      <c r="I56" s="58">
+      <c r="D56" s="44">
+        <v>3</v>
+      </c>
+      <c r="E56" s="45">
+        <f>K56</f>
         <v>4</v>
       </c>
-      <c r="J56" s="58">
+      <c r="F56" s="44">
         <v>4</v>
       </c>
-      <c r="K56" s="58">
+      <c r="G56" s="45"/>
+      <c r="I56" s="44">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="60" t="s">
+      <c r="J56" s="44">
+        <v>4</v>
+      </c>
+      <c r="K56" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="I57" s="50" t="s">
+      <c r="E57" s="47"/>
+      <c r="F57" s="46">
+        <f>F50/D50-1</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="G57" s="47"/>
+      <c r="I57" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="60">
+      <c r="J57" s="46">
         <f>J50/I50-1</f>
         <v>0.12941176470588234</v>
       </c>
-      <c r="K57" s="60">
+      <c r="K57" s="46">
         <f>K50/J50-1</f>
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="41" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3826,13 +4317,19 @@
       <c r="B62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="47">
+      <c r="D62" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="F62" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="I62" s="33">
         <v>25.806999999999999</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="33">
         <v>35.534999999999997</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="33">
         <v>58.634</v>
       </c>
     </row>
@@ -3840,13 +4337,19 @@
       <c r="B63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I63" s="47">
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="I63" s="33">
         <v>3.5590000000000002</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J63" s="33">
         <v>3.7210000000000001</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="33">
         <v>5.0780000000000003</v>
       </c>
     </row>
@@ -3854,13 +4357,19 @@
       <c r="B64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I64" s="47">
+      <c r="D64" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I64" s="33">
         <v>1.679</v>
       </c>
-      <c r="J64" s="47">
+      <c r="J64" s="33">
         <v>1.387</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="33">
         <v>6.7190000000000003</v>
       </c>
     </row>
@@ -3868,13 +4377,19 @@
       <c r="B65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I65" s="47">
+      <c r="D65" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I65" s="33">
         <v>0</v>
       </c>
-      <c r="J65" s="47">
+      <c r="J65" s="33">
         <v>0</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="33">
         <v>2.698</v>
       </c>
     </row>
@@ -3882,15 +4397,23 @@
       <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="47">
-        <f t="shared" ref="I66:J66" si="4">+SUM(I62:I65)</f>
+      <c r="D66" s="33">
+        <f t="shared" ref="D66:F66" si="14">+SUM(D62:D65)</f>
+        <v>50.9</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" si="14"/>
+        <v>78.7</v>
+      </c>
+      <c r="I66" s="33">
+        <f t="shared" ref="I66:J66" si="15">+SUM(I62:I65)</f>
         <v>31.044999999999998</v>
       </c>
-      <c r="J66" s="47">
-        <f t="shared" si="4"/>
+      <c r="J66" s="33">
+        <f t="shared" si="15"/>
         <v>40.643000000000001</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K66" s="33">
         <f>+SUM(K62:K65)</f>
         <v>73.128999999999991</v>
       </c>
@@ -3899,14 +4422,21 @@
       <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="I67" s="46">
+      <c r="D67" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="2">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="G67" s="30"/>
+      <c r="I67" s="32">
         <v>40.576000000000001</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="32">
         <v>47.889000000000003</v>
       </c>
-      <c r="K67" s="46">
+      <c r="K67" s="32">
         <v>108.057</v>
       </c>
     </row>
@@ -3914,13 +4444,19 @@
       <c r="B68" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I68" s="47">
+      <c r="D68" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F68" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I68" s="33">
         <v>20.734000000000002</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="33">
         <v>26.027000000000001</v>
       </c>
-      <c r="K68" s="47">
+      <c r="K68" s="33">
         <v>39.76</v>
       </c>
     </row>
@@ -3928,14 +4464,21 @@
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="43"/>
-      <c r="I69" s="46">
+      <c r="D69" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="G69" s="30"/>
+      <c r="I69" s="32">
         <v>34.429000000000002</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="32">
         <v>32.843000000000004</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="32">
         <v>42.207000000000001</v>
       </c>
     </row>
@@ -3943,13 +4486,19 @@
       <c r="B70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I70" s="47">
+      <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="J70" s="47">
+      <c r="F70" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I70" s="33">
         <v>0</v>
       </c>
-      <c r="K70" s="47">
+      <c r="J70" s="33">
+        <v>0</v>
+      </c>
+      <c r="K70" s="33">
         <v>2.2010000000000001</v>
       </c>
     </row>
@@ -3957,35 +4506,49 @@
       <c r="B71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="47">
-        <f t="shared" ref="I71:J71" si="5">+I66+SUM(I67:I70)</f>
+      <c r="D71" s="33">
+        <f t="shared" ref="D71:F71" si="16">+D66+SUM(D67:D70)</f>
+        <v>183.5</v>
+      </c>
+      <c r="F71" s="33">
+        <f t="shared" si="16"/>
+        <v>296.8</v>
+      </c>
+      <c r="I71" s="33">
+        <f t="shared" ref="I71:J71" si="17">+I66+SUM(I67:I70)</f>
         <v>126.78400000000001</v>
       </c>
-      <c r="J71" s="47">
-        <f t="shared" si="5"/>
+      <c r="J71" s="33">
+        <f t="shared" si="17"/>
         <v>147.40199999999999</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K71" s="33">
         <f>+K66+SUM(K67:K70)</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="47">
+      <c r="D73" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="F73" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="I73" s="33">
         <v>22.542999999999999</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J73" s="33">
         <v>26.494</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K73" s="33">
         <v>81.19</v>
       </c>
     </row>
@@ -3993,13 +4556,19 @@
       <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I74" s="47">
+      <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="J74" s="47">
+      <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="K74" s="47">
+      <c r="I74" s="33">
+        <v>0</v>
+      </c>
+      <c r="J74" s="33">
+        <v>0</v>
+      </c>
+      <c r="K74" s="33">
         <v>0.44500000000000001</v>
       </c>
     </row>
@@ -4007,13 +4576,19 @@
       <c r="B75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I75" s="47">
+      <c r="D75" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I75" s="33">
         <v>0.16500000000000001</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="33">
         <v>0.26300000000000001</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="33">
         <v>1.252</v>
       </c>
     </row>
@@ -4021,13 +4596,19 @@
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I76" s="47">
+      <c r="D76" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="33">
         <v>0.39</v>
       </c>
-      <c r="J76" s="47">
+      <c r="J76" s="33">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4035,15 +4616,23 @@
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I77" s="47">
-        <f t="shared" ref="I77:J77" si="6">SUM(I73:I76)</f>
+      <c r="D77" s="33">
+        <f t="shared" ref="D77:F77" si="18">SUM(D73:D76)</f>
+        <v>48.6</v>
+      </c>
+      <c r="F77" s="33">
+        <f t="shared" si="18"/>
+        <v>72.7</v>
+      </c>
+      <c r="I77" s="33">
+        <f t="shared" ref="I77:J77" si="19">SUM(I73:I76)</f>
         <v>23.097999999999999</v>
       </c>
-      <c r="J77" s="47">
-        <f t="shared" si="6"/>
+      <c r="J77" s="33">
+        <f t="shared" si="19"/>
         <v>27.519000000000002</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="33">
         <f>SUM(K73:K76)</f>
         <v>82.886999999999986</v>
       </c>
@@ -4052,13 +4641,19 @@
       <c r="B78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="47">
+      <c r="D78" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I78" s="33">
         <v>1.9510000000000001</v>
       </c>
-      <c r="J78" s="47">
+      <c r="J78" s="33">
         <v>1.359</v>
       </c>
-      <c r="K78" s="47">
+      <c r="K78" s="33">
         <v>5.8280000000000003</v>
       </c>
     </row>
@@ -4066,13 +4661,19 @@
       <c r="B79" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I79" s="47">
+      <c r="D79" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="I79" s="33">
         <v>6.2140000000000004</v>
       </c>
-      <c r="J79" s="47">
+      <c r="J79" s="33">
         <v>7.673</v>
       </c>
-      <c r="K79" s="47">
+      <c r="K79" s="33">
         <v>10.244</v>
       </c>
     </row>
@@ -4080,13 +4681,19 @@
       <c r="B80" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I80" s="47">
+      <c r="D80" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="I80" s="33">
         <v>0</v>
       </c>
-      <c r="J80" s="47">
+      <c r="J80" s="33">
         <v>3.7</v>
       </c>
-      <c r="K80" s="47">
+      <c r="K80" s="33">
         <v>6.4249999999999998</v>
       </c>
     </row>
@@ -4094,13 +4701,19 @@
       <c r="B81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I81" s="47">
+      <c r="D81" s="1">
         <v>0</v>
       </c>
-      <c r="J81" s="47">
+      <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="K81" s="47">
+      <c r="I81" s="33">
+        <v>0</v>
+      </c>
+      <c r="J81" s="33">
+        <v>0</v>
+      </c>
+      <c r="K81" s="33">
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -4108,36 +4721,51 @@
       <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="I82" s="46">
-        <f t="shared" ref="I82:J82" si="7">SUM(I77:I81)</f>
+      <c r="D82" s="32">
+        <f t="shared" ref="D82:F82" si="20">SUM(D77:D81)</f>
+        <v>62.2</v>
+      </c>
+      <c r="E82" s="30"/>
+      <c r="F82" s="32">
+        <f t="shared" si="20"/>
+        <v>95.199999999999989</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="I82" s="32">
+        <f t="shared" ref="I82:J82" si="21">SUM(I77:I81)</f>
         <v>31.262999999999998</v>
       </c>
-      <c r="J82" s="46">
-        <f t="shared" si="7"/>
+      <c r="J82" s="32">
+        <f t="shared" si="21"/>
         <v>40.251000000000005</v>
       </c>
-      <c r="K82" s="46">
+      <c r="K82" s="32">
         <f>SUM(K77:K81)</f>
         <v>106.13999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="47">
+      <c r="D84" s="1">
+        <v>121.3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="I84" s="33">
         <v>95.521000000000001</v>
       </c>
-      <c r="J84" s="47">
+      <c r="J84" s="33">
         <v>107.151</v>
       </c>
-      <c r="K84" s="47">
+      <c r="K84" s="33">
         <v>159.214</v>
       </c>
     </row>
@@ -4145,36 +4773,52 @@
       <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I85" s="47">
+      <c r="D85" s="33">
+        <f>+D84+D82</f>
+        <v>183.5</v>
+      </c>
+      <c r="F85" s="33">
+        <f>+F84+F82</f>
+        <v>296.79999999999995</v>
+      </c>
+      <c r="I85" s="33">
         <f>+I84+I82</f>
         <v>126.78399999999999</v>
       </c>
-      <c r="J85" s="47">
+      <c r="J85" s="33">
         <f>+J84+J82</f>
         <v>147.40199999999999</v>
       </c>
-      <c r="K85" s="47">
+      <c r="K85" s="33">
         <f>+K84+K82</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I86" s="47"/>
-      <c r="K86" s="47"/>
+      <c r="I86" s="33"/>
+      <c r="K86" s="33"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I87" s="47">
-        <f t="shared" ref="I87:K87" si="8">I71-I82</f>
+      <c r="D87" s="33">
+        <f t="shared" ref="D87" si="22">D71-D82</f>
+        <v>121.3</v>
+      </c>
+      <c r="F87" s="33">
+        <f t="shared" ref="F87" si="23">F71-F82</f>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="I87" s="33">
+        <f t="shared" ref="I87:J87" si="24">I71-I82</f>
         <v>95.521000000000015</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>107.15099999999998</v>
       </c>
-      <c r="K87" s="47">
+      <c r="K87" s="33">
         <f>K71-K82</f>
         <v>159.214</v>
       </c>
@@ -4183,32 +4827,48 @@
       <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="47">
-        <f t="shared" ref="I88:J88" si="9">I87+I82</f>
-        <v>126.78400000000002</v>
+      <c r="D88" s="33">
+        <f>D87/D27</f>
+        <v>0.62714655838590982</v>
+      </c>
+      <c r="F88" s="33">
+        <f>F87/F27</f>
+        <v>1.0423144779109599</v>
+      </c>
+      <c r="I88" s="33">
+        <f t="shared" ref="I88:K88" si="25">I87/I27</f>
+        <v>0.92647087350390889</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="9"/>
-        <v>147.40199999999999</v>
-      </c>
-      <c r="K88" s="47">
-        <f>K87+K82</f>
-        <v>265.35399999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.97471140988438187</v>
+      </c>
+      <c r="K88" s="33">
+        <f t="shared" si="25"/>
+        <v>1.4313944079834577</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="47">
-        <f t="shared" ref="I90:K90" si="10">+I69</f>
+      <c r="D90" s="33">
+        <f t="shared" ref="D90" si="26">+D69</f>
+        <v>36.9</v>
+      </c>
+      <c r="F90" s="33">
+        <f t="shared" ref="F90" si="27">+F69</f>
+        <v>40.4</v>
+      </c>
+      <c r="I90" s="33">
+        <f t="shared" ref="I90:J90" si="28">+I69</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J90" s="47">
-        <f t="shared" si="10"/>
+      <c r="J90" s="33">
+        <f t="shared" si="28"/>
         <v>32.843000000000004</v>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="33">
         <f>+K69</f>
         <v>42.207000000000001</v>
       </c>
@@ -4217,15 +4877,23 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="47">
-        <f t="shared" ref="I91:K91" si="11">+I80</f>
+      <c r="D91" s="33">
+        <f t="shared" ref="D91" si="29">+D80</f>
+        <v>3.7</v>
+      </c>
+      <c r="F91" s="33">
+        <f t="shared" ref="F91" si="30">+F80</f>
+        <v>5.8</v>
+      </c>
+      <c r="I91" s="33">
+        <f t="shared" ref="I91:J91" si="31">+I80</f>
         <v>0</v>
       </c>
-      <c r="J91" s="47">
-        <f t="shared" si="11"/>
+      <c r="J91" s="33">
+        <f t="shared" si="31"/>
         <v>3.7</v>
       </c>
-      <c r="K91" s="47">
+      <c r="K91" s="33">
         <f>+K80</f>
         <v>6.4249999999999998</v>
       </c>
@@ -4234,24 +4902,39 @@
       <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="I92" s="46">
-        <f t="shared" ref="I92:J92" si="12">I90-I91</f>
+      <c r="D92" s="32">
+        <f t="shared" ref="D92" si="32">D90-D91</f>
+        <v>33.199999999999996</v>
+      </c>
+      <c r="E92" s="30"/>
+      <c r="F92" s="32">
+        <f t="shared" ref="F92" si="33">F90-F91</f>
+        <v>34.6</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="I92" s="32">
+        <f t="shared" ref="I92:J92" si="34">I90-I91</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J92" s="46">
-        <f t="shared" si="12"/>
+      <c r="J92" s="32">
+        <f t="shared" si="34"/>
         <v>29.143000000000004</v>
       </c>
-      <c r="K92" s="46">
+      <c r="K92" s="32">
         <f>K90-K91</f>
         <v>35.782000000000004</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{288D82BF-51F3-4925-918B-92A8A14B648C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13 E15 E20 E23 E50" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4260,7 +4943,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B918F58D-713F-4559-97D9-6E2CD3703B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B50CCE-C9F9-492C-9386-F19EC4DDD904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -70,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
   <si>
     <t>£RPI</t>
   </si>
@@ -493,6 +484,45 @@
   </si>
   <si>
     <t>H224</t>
+  </si>
+  <si>
+    <t>Share Price (GBP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC </t>
+  </si>
+  <si>
+    <t>Share Price (USD) cents</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Magazines</t>
+  </si>
+  <si>
+    <t>Annual magazines</t>
+  </si>
+  <si>
+    <t>Online resources</t>
+  </si>
+  <si>
+    <t>Raspberrry Pi Shop - Cambridge</t>
+  </si>
+  <si>
+    <t>Touring 'pop-up' stand/shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competes with Arduino, ESP32 </t>
+  </si>
+  <si>
+    <t>Dr Eben Upton</t>
+  </si>
+  <si>
+    <t>46 yo</t>
+  </si>
+  <si>
+    <t>Knock-on impact of 2020/21 Chip Shortage still being felt by RPI</t>
+  </si>
+  <si>
+    <t>During the chipo shortage, RPI prioritised industry/business customers over retail</t>
   </si>
 </sst>
 </file>
@@ -799,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -907,48 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,6 +968,55 @@
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2445,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
-  <dimension ref="B2:X42"/>
+  <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2493,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2510,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2490,33 +2527,33 @@
       <c r="O3" s="23"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
-      <c r="Q5" s="72" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="Q5" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2524,26 +2561,22 @@
         <v>3.7120000000000002</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="G6" s="61">
-        <v>45536</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>11</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="73" t="s">
+      <c r="Q6" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2603,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2579,12 +2612,8 @@
         <v>717.95913408000001</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="G8" s="61">
-        <v>45505</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -2597,21 +2626,28 @@
       <c r="T8" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U8" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15">
-        <f>+'Financial Model'!F90</f>
-        <v>40.4</v>
+        <f>+'Financial Model'!F90*$C$13</f>
+        <v>30.704000000000001</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$30</f>
         <v>H124</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="62"/>
+      <c r="G9" s="61">
+        <v>45536</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
@@ -2622,24 +2658,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="15">
-        <f>+'Financial Model'!F91</f>
-        <v>5.8</v>
+        <f>+'Financial Model'!F91*$C$13</f>
+        <v>4.4079999999999995</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="G10" s="61">
-        <v>45444</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>36</v>
-      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
@@ -2656,20 +2688,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>34.6</v>
+        <v>26.295999999999999</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="61">
+        <v>45505</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
@@ -2683,13 +2719,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>683.35913407999999</v>
+        <v>691.66313407999996</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="7"/>
@@ -2710,7 +2746,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
         <v>94</v>
       </c>
@@ -2718,8 +2754,12 @@
         <v>0.76</v>
       </c>
       <c r="D13" s="56"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="62"/>
+      <c r="G13" s="61">
+        <v>45444</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>36</v>
+      </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2733,7 +2773,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G14" s="7"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -2746,12 +2786,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="69" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2761,12 +2801,17 @@
       <c r="M15" s="62"/>
       <c r="N15" s="60"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="93" t="s">
+        <v>151</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
+      <c r="C16" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="86"/>
       <c r="G16" s="7"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -2775,19 +2820,19 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="73" t="s">
+      <c r="Q16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2807,8 +2852,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2828,8 +2873,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="G19" s="7">
         <v>2012</v>
       </c>
@@ -2844,6 +2889,9 @@
       <c r="N19" s="60"/>
       <c r="Q19" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="W19" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="X19" s="42"/>
     </row>
@@ -2856,6 +2904,9 @@
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="60"/>
+      <c r="W20" s="94" t="s">
+        <v>153</v>
+      </c>
       <c r="X20" s="42"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
@@ -2874,11 +2925,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
       <c r="G22" s="8"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2887,61 +2938,85 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
+      <c r="Q22" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="86"/>
+      <c r="Q23" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="85">
         <v>2012</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="91">
         <v>45444</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="86"/>
+      <c r="Q25" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="85">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="86"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
+      <c r="Q28" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
+      <c r="Q29" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
@@ -2950,75 +3025,78 @@
       <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="63">
         <v>45559</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="90"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="87">
         <f>C6/'Financial Model'!F88</f>
         <v>3.5613052285714284</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="87">
         <f>C6/(SUM('Financial Model'!E13:F13)*Main!C13)</f>
         <v>1.5239489063285427E-2</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="87">
         <f>+C12/('Financial Model'!K13*Main!C13)</f>
-        <v>3.3828702181304564</v>
-      </c>
-      <c r="D37" s="66"/>
+        <v>3.4239779649803972</v>
+      </c>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="87">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
         <v>17.20735895230284</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="87">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>28.479562757139899</v>
-      </c>
-      <c r="D39" s="66"/>
+        <v>28.825638893889984</v>
+      </c>
+      <c r="D39" s="88"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
@@ -3036,7 +3114,20 @@
       <c r="D42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3048,18 +3139,7 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3072,13 +3152,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18B329-9CBE-49D8-B2AA-D4DBC0BF2B3C}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3102,7 +3182,7 @@
       <c r="E1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="73" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -3124,33 +3204,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="D2" s="82">
+    <row r="2" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65"/>
+      <c r="D2" s="68">
         <v>45107</v>
       </c>
-      <c r="E2" s="81" t="str">
+      <c r="E2" s="67" t="str">
         <f>K2</f>
         <v>31/12/023</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="68">
         <v>45473</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="I2" s="82">
+      <c r="G2" s="67"/>
+      <c r="I2" s="68">
         <v>44561</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="68">
         <v>44926</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="78">
+      <c r="F3" s="64">
         <v>45559</v>
       </c>
       <c r="G3" s="28"/>
@@ -3162,7 +3242,7 @@
       <c r="D4" s="52">
         <v>27</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="75">
         <f>K4-D4</f>
         <v>77.75</v>
       </c>
@@ -3187,7 +3267,7 @@
       <c r="D5" s="52">
         <v>19.8</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="75">
         <f>K5-D5</f>
         <v>25.477999999999998</v>
       </c>
@@ -3212,7 +3292,7 @@
       <c r="D6" s="52">
         <v>23.4</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="75">
         <f>K6-D6</f>
         <v>36.917000000000002</v>
       </c>
@@ -3238,11 +3318,11 @@
         <f>18.7+0.4</f>
         <v>19.099999999999998</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="75">
         <f>K7-D7</f>
         <v>36.352000000000004</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="71">
         <v>17</v>
       </c>
       <c r="G7" s="51"/>
@@ -3285,7 +3365,7 @@
       <c r="D9" s="49">
         <v>74.599999999999994</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="75">
         <f>K9-D9</f>
         <v>137.679</v>
       </c>
@@ -3310,7 +3390,7 @@
       <c r="D10" s="49">
         <v>3.1</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="75">
         <f>K10-D10</f>
         <v>5.6870000000000012</v>
       </c>
@@ -3335,7 +3415,7 @@
       <c r="D11" s="49">
         <v>11.1</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="75">
         <f>K11-D11</f>
         <v>32.384</v>
       </c>
@@ -3360,7 +3440,7 @@
       <c r="D12" s="49">
         <v>0.5</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="75">
         <f>K12-D12</f>
         <v>0.74700000000000011</v>
       </c>
@@ -3378,30 +3458,30 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="69">
         <f>SUM(D9:D12)</f>
         <v>89.299999999999983</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="70">
         <f>SUM(E9:E12)</f>
         <v>176.49700000000001</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="69">
         <f>SUM(F9:F12)</f>
         <v>144</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="I13" s="83">
+      <c r="G13" s="70"/>
+      <c r="I13" s="69">
         <v>140.58699999999999</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="69">
         <v>187.85900000000001</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="69">
         <v>265.79700000000003</v>
       </c>
     </row>
@@ -3437,7 +3517,7 @@
         <f>+D13-D14</f>
         <v>23.199999999999989</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="76">
         <f>+E13-E14</f>
         <v>42.754999999999995</v>
       </c>
@@ -3563,7 +3643,7 @@
         <f t="shared" ref="D20:F20" si="1">+D15-D16-D17+D18+D19</f>
         <v>10.39999999999999</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="76">
         <f t="shared" si="1"/>
         <v>27.131999999999994</v>
       </c>
@@ -3694,7 +3774,7 @@
         <f t="shared" ref="D25:F25" si="5">+D23-D24</f>
         <v>8.4999999999999893</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="76">
         <f t="shared" si="5"/>
         <v>23.071999999999996</v>
       </c>
@@ -3761,13 +3841,13 @@
         <v>193.41571500000001</v>
       </c>
       <c r="G27" s="40"/>
-      <c r="I27" s="86">
+      <c r="I27" s="72">
         <v>103.102</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="72">
         <v>109.931</v>
       </c>
-      <c r="K27" s="86">
+      <c r="K27" s="72">
         <v>111.23</v>
       </c>
     </row>
@@ -3993,7 +4073,7 @@
         <f>D15/D13</f>
         <v>0.25979843225083976</v>
       </c>
-      <c r="E42" s="91">
+      <c r="E42" s="77">
         <f>E15/E13</f>
         <v>0.2422420777690272</v>
       </c>
@@ -4022,7 +4102,7 @@
         <f>D20/D13</f>
         <v>0.11646136618141088</v>
       </c>
-      <c r="E43" s="91">
+      <c r="E43" s="77">
         <f>E20/E13</f>
         <v>0.1537249924927902</v>
       </c>
@@ -4051,7 +4131,7 @@
         <f>D25/D13</f>
         <v>9.5184770436730015E-2</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="77">
         <f>E25/E13</f>
         <v>0.13072176864195989</v>
       </c>
@@ -4080,7 +4160,7 @@
         <f t="shared" ref="D45" si="11">D24/D23</f>
         <v>0.20560747663551421</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="77">
         <f t="shared" ref="E45:F45" si="12">E24/E23</f>
         <v>0.16089613034623218</v>
       </c>
@@ -4115,7 +4195,7 @@
         <v>95</v>
       </c>
       <c r="E50" s="30">
-        <f>K50</f>
+        <f t="shared" ref="E50:E56" si="14">K50</f>
         <v>103</v>
       </c>
       <c r="F50" s="2">
@@ -4144,7 +4224,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="45">
-        <f>K51</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="F51" s="44">
@@ -4169,7 +4249,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="45">
-        <f>K52</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="F52" s="44">
@@ -4190,14 +4270,14 @@
       <c r="B53" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="74" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="45">
-        <f>K53</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="F53" s="88" t="s">
+      <c r="F53" s="74" t="s">
         <v>66</v>
       </c>
       <c r="G53" s="45"/>
@@ -4219,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="E54" s="45">
-        <f>K54</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="F54" s="44">
@@ -4244,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="45">
-        <f>K55</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="F55" s="44">
@@ -4269,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="45">
-        <f>K56</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="F56" s="44">
@@ -4320,6 +4400,10 @@
       <c r="D62" s="1">
         <v>42.5</v>
       </c>
+      <c r="E62" s="40">
+        <f>+K62</f>
+        <v>58.634</v>
+      </c>
       <c r="F62" s="1">
         <v>65.8</v>
       </c>
@@ -4340,6 +4424,10 @@
       <c r="D63" s="1">
         <v>4</v>
       </c>
+      <c r="E63" s="40">
+        <f>+K63</f>
+        <v>5.0780000000000003</v>
+      </c>
       <c r="F63" s="1">
         <v>4.7</v>
       </c>
@@ -4360,6 +4448,10 @@
       <c r="D64" s="1">
         <v>1.3</v>
       </c>
+      <c r="E64" s="40">
+        <f>+K64</f>
+        <v>6.7190000000000003</v>
+      </c>
       <c r="F64" s="1">
         <v>5.9</v>
       </c>
@@ -4380,6 +4472,10 @@
       <c r="D65" s="1">
         <v>3.1</v>
       </c>
+      <c r="E65" s="40">
+        <f>+K65</f>
+        <v>2.698</v>
+      </c>
       <c r="F65" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -4398,19 +4494,23 @@
         <v>109</v>
       </c>
       <c r="D66" s="33">
-        <f t="shared" ref="D66:F66" si="14">+SUM(D62:D65)</f>
+        <f t="shared" ref="D66:F66" si="15">+SUM(D62:D65)</f>
         <v>50.9</v>
       </c>
+      <c r="E66" s="40">
+        <f t="shared" si="15"/>
+        <v>73.128999999999991</v>
+      </c>
       <c r="F66" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>78.7</v>
       </c>
       <c r="I66" s="33">
-        <f t="shared" ref="I66:J66" si="15">+SUM(I62:I65)</f>
+        <f t="shared" ref="I66:J66" si="16">+SUM(I62:I65)</f>
         <v>31.044999999999998</v>
       </c>
       <c r="J66" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.643000000000001</v>
       </c>
       <c r="K66" s="33">
@@ -4425,7 +4525,10 @@
       <c r="D67" s="2">
         <v>61.9</v>
       </c>
-      <c r="E67" s="30"/>
+      <c r="E67" s="76">
+        <f>+K67</f>
+        <v>108.057</v>
+      </c>
       <c r="F67" s="2">
         <v>145.69999999999999</v>
       </c>
@@ -4447,6 +4550,10 @@
       <c r="D68" s="1">
         <v>33.799999999999997</v>
       </c>
+      <c r="E68" s="40">
+        <f>+K68</f>
+        <v>39.76</v>
+      </c>
       <c r="F68" s="1">
         <v>26.5</v>
       </c>
@@ -4467,7 +4574,10 @@
       <c r="D69" s="2">
         <v>36.9</v>
       </c>
-      <c r="E69" s="30"/>
+      <c r="E69" s="40">
+        <f>+K69</f>
+        <v>42.207000000000001</v>
+      </c>
       <c r="F69" s="2">
         <v>40.4</v>
       </c>
@@ -4489,6 +4599,10 @@
       <c r="D70" s="1">
         <v>0</v>
       </c>
+      <c r="E70" s="40">
+        <f>+K70</f>
+        <v>2.2010000000000001</v>
+      </c>
       <c r="F70" s="1">
         <v>5.5</v>
       </c>
@@ -4507,19 +4621,23 @@
         <v>113</v>
       </c>
       <c r="D71" s="33">
-        <f t="shared" ref="D71:F71" si="16">+D66+SUM(D67:D70)</f>
+        <f t="shared" ref="D71:F71" si="17">+D66+SUM(D67:D70)</f>
         <v>183.5</v>
       </c>
+      <c r="E71" s="40">
+        <f t="shared" si="17"/>
+        <v>265.35399999999998</v>
+      </c>
       <c r="F71" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>296.8</v>
       </c>
       <c r="I71" s="33">
-        <f t="shared" ref="I71:J71" si="17">+I66+SUM(I67:I70)</f>
+        <f t="shared" ref="I71:J71" si="18">+I66+SUM(I67:I70)</f>
         <v>126.78400000000001</v>
       </c>
       <c r="J71" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>147.40199999999999</v>
       </c>
       <c r="K71" s="33">
@@ -4528,6 +4646,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E72" s="40"/>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
       <c r="K72" s="33"/>
@@ -4539,6 +4658,10 @@
       <c r="D73" s="1">
         <v>46.3</v>
       </c>
+      <c r="E73" s="40">
+        <f>+K73</f>
+        <v>81.19</v>
+      </c>
       <c r="F73" s="1">
         <v>71.400000000000006</v>
       </c>
@@ -4559,6 +4682,10 @@
       <c r="D74" s="1">
         <v>0</v>
       </c>
+      <c r="E74" s="40">
+        <f>+K74</f>
+        <v>0.44500000000000001</v>
+      </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
@@ -4579,6 +4706,10 @@
       <c r="D75" s="1">
         <v>0.2</v>
       </c>
+      <c r="E75" s="40">
+        <f>+K75</f>
+        <v>1.252</v>
+      </c>
       <c r="F75" s="1">
         <v>1.3</v>
       </c>
@@ -4599,6 +4730,10 @@
       <c r="D76" s="1">
         <v>2.1</v>
       </c>
+      <c r="E76" s="40">
+        <f>+K76</f>
+        <v>0</v>
+      </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
@@ -4617,19 +4752,23 @@
         <v>118</v>
       </c>
       <c r="D77" s="33">
-        <f t="shared" ref="D77:F77" si="18">SUM(D73:D76)</f>
+        <f t="shared" ref="D77:F77" si="19">SUM(D73:D76)</f>
         <v>48.6</v>
       </c>
+      <c r="E77" s="40">
+        <f t="shared" si="19"/>
+        <v>82.886999999999986</v>
+      </c>
       <c r="F77" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>72.7</v>
       </c>
       <c r="I77" s="33">
-        <f t="shared" ref="I77:J77" si="19">SUM(I73:I76)</f>
+        <f t="shared" ref="I77:J77" si="20">SUM(I73:I76)</f>
         <v>23.097999999999999</v>
       </c>
       <c r="J77" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.519000000000002</v>
       </c>
       <c r="K77" s="33">
@@ -4644,6 +4783,10 @@
       <c r="D78" s="1">
         <v>1.4</v>
       </c>
+      <c r="E78" s="40">
+        <f>+K78</f>
+        <v>5.8280000000000003</v>
+      </c>
       <c r="F78" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -4664,6 +4807,10 @@
       <c r="D79" s="1">
         <v>8.5</v>
       </c>
+      <c r="E79" s="40">
+        <f>+K79</f>
+        <v>10.244</v>
+      </c>
       <c r="F79" s="1">
         <v>11.6</v>
       </c>
@@ -4684,6 +4831,10 @@
       <c r="D80" s="1">
         <v>3.7</v>
       </c>
+      <c r="E80" s="40">
+        <f>+K80</f>
+        <v>6.4249999999999998</v>
+      </c>
       <c r="F80" s="1">
         <v>5.8</v>
       </c>
@@ -4704,6 +4855,10 @@
       <c r="D81" s="1">
         <v>0</v>
       </c>
+      <c r="E81" s="40">
+        <f>+K81</f>
+        <v>0.75600000000000001</v>
+      </c>
       <c r="F81" s="1">
         <v>0</v>
       </c>
@@ -4722,21 +4877,24 @@
         <v>121</v>
       </c>
       <c r="D82" s="32">
-        <f t="shared" ref="D82:F82" si="20">SUM(D77:D81)</f>
+        <f t="shared" ref="D82:F82" si="21">SUM(D77:D81)</f>
         <v>62.2</v>
       </c>
-      <c r="E82" s="30"/>
+      <c r="E82" s="76">
+        <f t="shared" si="21"/>
+        <v>106.13999999999999</v>
+      </c>
       <c r="F82" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>95.199999999999989</v>
       </c>
       <c r="G82" s="30"/>
       <c r="I82" s="32">
-        <f t="shared" ref="I82:J82" si="21">SUM(I77:I81)</f>
+        <f t="shared" ref="I82:J82" si="22">SUM(I77:I81)</f>
         <v>31.262999999999998</v>
       </c>
       <c r="J82" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40.251000000000005</v>
       </c>
       <c r="K82" s="32">
@@ -4745,6 +4903,7 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E83" s="40"/>
       <c r="I83" s="33"/>
       <c r="J83" s="33"/>
       <c r="K83" s="33"/>
@@ -4756,6 +4915,10 @@
       <c r="D84" s="1">
         <v>121.3</v>
       </c>
+      <c r="E84" s="40">
+        <f>+K84</f>
+        <v>159.214</v>
+      </c>
       <c r="F84" s="1">
         <v>201.6</v>
       </c>
@@ -4777,6 +4940,10 @@
         <f>+D84+D82</f>
         <v>183.5</v>
       </c>
+      <c r="E85" s="40">
+        <f>+E84+E82</f>
+        <v>265.35399999999998</v>
+      </c>
       <c r="F85" s="33">
         <f>+F84+F82</f>
         <v>296.79999999999995</v>
@@ -4795,6 +4962,7 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E86" s="40"/>
       <c r="I86" s="33"/>
       <c r="K86" s="33"/>
     </row>
@@ -4803,19 +4971,23 @@
         <v>123</v>
       </c>
       <c r="D87" s="33">
-        <f t="shared" ref="D87" si="22">D71-D82</f>
+        <f t="shared" ref="D87" si="23">D71-D82</f>
         <v>121.3</v>
       </c>
+      <c r="E87" s="40">
+        <f t="shared" ref="E87:F87" si="24">E71-E82</f>
+        <v>159.214</v>
+      </c>
       <c r="F87" s="33">
-        <f t="shared" ref="F87" si="23">F71-F82</f>
+        <f t="shared" si="24"/>
         <v>201.60000000000002</v>
       </c>
       <c r="I87" s="33">
-        <f t="shared" ref="I87:J87" si="24">I71-I82</f>
+        <f t="shared" ref="I87:J87" si="25">I71-I82</f>
         <v>95.521000000000015</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>107.15099999999998</v>
       </c>
       <c r="K87" s="33">
@@ -4831,20 +5003,24 @@
         <f>D87/D27</f>
         <v>0.62714655838590982</v>
       </c>
+      <c r="E88" s="29">
+        <f>E87/E27</f>
+        <v>0.82316992701446201</v>
+      </c>
       <c r="F88" s="33">
         <f>F87/F27</f>
         <v>1.0423144779109599</v>
       </c>
       <c r="I88" s="33">
-        <f t="shared" ref="I88:K88" si="25">I87/I27</f>
+        <f t="shared" ref="I88:K88" si="26">I87/I27</f>
         <v>0.92647087350390889</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.97471140988438187</v>
       </c>
       <c r="K88" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.4313944079834577</v>
       </c>
     </row>
@@ -4853,19 +5029,23 @@
         <v>6</v>
       </c>
       <c r="D90" s="33">
-        <f t="shared" ref="D90" si="26">+D69</f>
+        <f t="shared" ref="D90" si="27">+D69</f>
         <v>36.9</v>
       </c>
+      <c r="E90" s="29">
+        <f t="shared" ref="E90:F90" si="28">+E69</f>
+        <v>42.207000000000001</v>
+      </c>
       <c r="F90" s="33">
-        <f t="shared" ref="F90" si="27">+F69</f>
+        <f t="shared" si="28"/>
         <v>40.4</v>
       </c>
       <c r="I90" s="33">
-        <f t="shared" ref="I90:J90" si="28">+I69</f>
+        <f t="shared" ref="I90:J90" si="29">+I69</f>
         <v>34.429000000000002</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>32.843000000000004</v>
       </c>
       <c r="K90" s="33">
@@ -4878,19 +5058,23 @@
         <v>7</v>
       </c>
       <c r="D91" s="33">
-        <f t="shared" ref="D91" si="29">+D80</f>
+        <f t="shared" ref="D91" si="30">+D80</f>
         <v>3.7</v>
       </c>
+      <c r="E91" s="40">
+        <f t="shared" ref="E91:F91" si="31">+E80</f>
+        <v>6.4249999999999998</v>
+      </c>
       <c r="F91" s="33">
-        <f t="shared" ref="F91" si="30">+F80</f>
+        <f t="shared" si="31"/>
         <v>5.8</v>
       </c>
       <c r="I91" s="33">
-        <f t="shared" ref="I91:J91" si="31">+I80</f>
+        <f t="shared" ref="I91:J91" si="32">+I80</f>
         <v>0</v>
       </c>
       <c r="J91" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.7</v>
       </c>
       <c r="K91" s="33">
@@ -4903,26 +5087,114 @@
         <v>8</v>
       </c>
       <c r="D92" s="32">
-        <f t="shared" ref="D92" si="32">D90-D91</f>
+        <f t="shared" ref="D92" si="33">D90-D91</f>
         <v>33.199999999999996</v>
       </c>
-      <c r="E92" s="30"/>
+      <c r="E92" s="76">
+        <f t="shared" ref="E92:F92" si="34">E90-E91</f>
+        <v>35.782000000000004</v>
+      </c>
       <c r="F92" s="32">
-        <f t="shared" ref="F92" si="33">F90-F91</f>
+        <f t="shared" si="34"/>
         <v>34.6</v>
       </c>
       <c r="G92" s="30"/>
       <c r="I92" s="32">
-        <f t="shared" ref="I92:J92" si="34">I90-I91</f>
+        <f t="shared" ref="I92:J92" si="35">I90-I91</f>
         <v>34.429000000000002</v>
       </c>
       <c r="J92" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>29.143000000000004</v>
       </c>
       <c r="K92" s="32">
         <f>K90-K91</f>
         <v>35.782000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="1">
+        <v>400.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="33">
+        <f>+F95+F27</f>
+        <v>593.91571499999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="33">
+        <f>+F96-(F92*F94)</f>
+        <v>566.58171500000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="33">
+        <f>F95*(1/F94)</f>
+        <v>506.96202531645565</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="92">
+        <f>(F95/100)/F88</f>
+        <v>3.8424104095982141</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="92">
+        <f>(F96*(1/F94))/SUM(E13:F13)</f>
+        <v>2.3457069623235083</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="92">
+        <f>(F98/100)/SUM(E26:F26)</f>
+        <v>31.968708465189874</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +5204,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="E13 E15 E20 E23 E50" formula="1"/>
+    <ignoredError sqref="E13 E15 E20 E23 E50 E66:E84" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B50CCE-C9F9-492C-9386-F19EC4DDD904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB2357-4D4E-409A-8B22-308693393D59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -968,16 +968,26 @@
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,10 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,21 +1008,14 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2528,27 +2528,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="G5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="Q5" s="78" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
+      <c r="Q5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2569,12 +2569,12 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2787,11 +2787,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2802,16 +2802,16 @@
       <c r="N15" s="60"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="79" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="83"/>
       <c r="G16" s="7"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -2820,19 +2820,19 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2852,8 +2852,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2873,8 +2873,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="G19" s="7">
         <v>2012</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
       <c r="N20" s="60"/>
-      <c r="W20" s="94" t="s">
+      <c r="W20" s="80" t="s">
         <v>153</v>
       </c>
       <c r="X20" s="42"/>
@@ -2925,11 +2925,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="G22" s="8"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2938,21 +2938,21 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
-      <c r="Q22" s="79" t="s">
+      <c r="Q22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="83"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2961,10 +2961,10 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="82">
         <v>2012</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
@@ -2976,39 +2976,40 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="89">
         <v>45444</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="83"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="82">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="86"/>
+      <c r="D27" s="83"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="Q28" s="79" t="s">
+      <c r="G28" s="38"/>
+      <c r="Q28" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3036,67 +3037,67 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="90"/>
+      <c r="D31" s="85"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="90">
         <f>C6/'Financial Model'!F88</f>
         <v>3.5613052285714284</v>
       </c>
-      <c r="D35" s="88"/>
+      <c r="D35" s="91"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="90">
         <f>C6/(SUM('Financial Model'!E13:F13)*Main!C13)</f>
         <v>1.5239489063285427E-2</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="91"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="90">
         <f>+C12/('Financial Model'!K13*Main!C13)</f>
         <v>3.4239779649803972</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="91"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="90">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
         <v>17.20735895230284</v>
       </c>
-      <c r="D38" s="88"/>
+      <c r="D38" s="91"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="90">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
         <v>28.825638893889984</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="91"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
@@ -3115,19 +3116,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3140,6 +3128,19 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3158,7 +3159,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5164,7 +5165,7 @@
       <c r="B102" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="92">
+      <c r="F102" s="78">
         <f>(F95/100)/F88</f>
         <v>3.8424104095982141</v>
       </c>
@@ -5173,7 +5174,7 @@
       <c r="B103" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="92">
+      <c r="F103" s="78">
         <f>(F96*(1/F94))/SUM(E13:F13)</f>
         <v>2.3457069623235083</v>
       </c>
@@ -5182,7 +5183,7 @@
       <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="92">
+      <c r="F104" s="78">
         <f>(F98/100)/SUM(E26:F26)</f>
         <v>31.968708465189874</v>
       </c>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB2357-4D4E-409A-8B22-308693393D59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA166B4-D32A-4B21-A18A-C7B149C795EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -975,19 +984,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +1005,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1008,13 +1017,13 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2484,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2528,27 +2537,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="G5" s="86" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="G5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
-      <c r="Q5" s="92" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+      <c r="Q5" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2569,12 +2578,12 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2787,11 +2796,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2808,10 +2817,10 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="89"/>
       <c r="G16" s="7"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -2820,19 +2829,19 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2852,8 +2861,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2873,8 +2882,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
       <c r="G19" s="7">
         <v>2012</v>
       </c>
@@ -2925,11 +2934,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="G22" s="8"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2938,21 +2947,21 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="89"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2961,10 +2970,10 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="88">
         <v>2012</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
@@ -2976,40 +2985,40 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="94">
         <v>45444</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="89"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="88">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="89"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="38"/>
-      <c r="Q28" s="81" t="s">
+      <c r="Q28" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3037,17 +3046,17 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
@@ -3064,8 +3073,8 @@
         <v>90</v>
       </c>
       <c r="C36" s="90">
-        <f>C6/(SUM('Financial Model'!E13:F13)*Main!C13)</f>
-        <v>1.5239489063285427E-2</v>
+        <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
+        <v>2.9475566734100314</v>
       </c>
       <c r="D36" s="91"/>
     </row>
@@ -3074,8 +3083,8 @@
         <v>92</v>
       </c>
       <c r="C37" s="90">
-        <f>+C12/('Financial Model'!K13*Main!C13)</f>
-        <v>3.4239779649803972</v>
+        <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
+        <v>2.8395993446362828</v>
       </c>
       <c r="D37" s="91"/>
     </row>
@@ -3116,6 +3125,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3128,19 +3150,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA166B4-D32A-4B21-A18A-C7B149C795EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB35DCCD-8083-4369-ADE0-17E9FED853E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -984,16 +975,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,10 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1017,13 +1008,13 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2494,7 +2485,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D36"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2537,27 +2528,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="G5" s="85" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="G5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
-      <c r="Q5" s="81" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
+      <c r="Q5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2567,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3.7120000000000002</v>
+        <v>3.33</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
@@ -2578,12 +2569,12 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="82" t="s">
+      <c r="Q6" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2618,7 +2609,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>717.95913408000001</v>
+        <v>644.07433094999999</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="7"/>
@@ -2734,7 +2725,7 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>691.66313407999996</v>
+        <v>617.77833094999994</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="7"/>
@@ -2796,11 +2787,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2817,10 +2808,10 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="83"/>
       <c r="G16" s="7"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -2829,19 +2820,19 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="82" t="s">
+      <c r="Q16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2861,8 +2852,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2882,8 +2873,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="G19" s="7">
         <v>2012</v>
       </c>
@@ -2934,11 +2925,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="G22" s="8"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2947,21 +2938,21 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
-      <c r="Q22" s="82" t="s">
+      <c r="Q22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="83"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2970,10 +2961,10 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="82">
         <v>2012</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
@@ -2985,40 +2976,40 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="89">
         <v>45444</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="83"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="82">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="83"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="38"/>
-      <c r="Q28" s="82" t="s">
+      <c r="Q28" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3046,17 +3037,17 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="93"/>
+      <c r="D31" s="85"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
@@ -3064,7 +3055,7 @@
       </c>
       <c r="C35" s="90">
         <f>C6/'Financial Model'!F88</f>
-        <v>3.5613052285714284</v>
+        <v>3.1948131495535712</v>
       </c>
       <c r="D35" s="91"/>
     </row>
@@ -3074,7 +3065,7 @@
       </c>
       <c r="C36" s="90">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.9475566734100314</v>
+        <v>2.6442251407476842</v>
       </c>
       <c r="D36" s="91"/>
     </row>
@@ -3084,7 +3075,7 @@
       </c>
       <c r="C37" s="90">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.8395993446362828</v>
+        <v>2.5362678119739357</v>
       </c>
       <c r="D37" s="91"/>
     </row>
@@ -3094,7 +3085,7 @@
       </c>
       <c r="C38" s="90">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>17.20735895230284</v>
+        <v>15.436558542879432</v>
       </c>
       <c r="D38" s="91"/>
     </row>
@@ -3104,7 +3095,7 @@
       </c>
       <c r="C39" s="90">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>28.825638893889984</v>
+        <v>25.74642800374415</v>
       </c>
       <c r="D39" s="91"/>
     </row>
@@ -3125,19 +3116,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3150,6 +3128,19 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB35DCCD-8083-4369-ADE0-17E9FED853E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432533D-05E8-45F5-A300-7B2E50C839F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>£RPI</t>
   </si>
@@ -523,6 +532,15 @@
   </si>
   <si>
     <t>During the chipo shortage, RPI prioritised industry/business customers over retail</t>
+  </si>
+  <si>
+    <t>Compute module 5 is released with options up to 16gb RAM</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Compute module 5</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2503,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2558,11 +2576,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3.33</v>
+        <v>3.66</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="62"/>
+      <c r="G6" s="61">
+        <v>45597</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>154</v>
+      </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -2609,7 +2631,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>644.07433094999999</v>
+        <v>707.90151690000005</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="7"/>
@@ -2725,7 +2747,7 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>617.77833094999994</v>
+        <v>681.6055169</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="7"/>
@@ -3042,80 +3064,93 @@
       </c>
       <c r="D31" s="85"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Q32" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="86" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="90">
         <f>C6/'Financial Model'!F88</f>
-        <v>3.1948131495535712</v>
+        <v>3.5114162544642857</v>
       </c>
       <c r="D35" s="91"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="90">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.6442251407476842</v>
+        <v>2.9062654700109682</v>
       </c>
       <c r="D36" s="91"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="90">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.5362678119739357</v>
+        <v>2.7983081412372202</v>
       </c>
       <c r="D37" s="91"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="90">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>15.436558542879432</v>
+        <v>16.966307587669284</v>
       </c>
       <c r="D38" s="91"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C39" s="90">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>25.74642800374415</v>
+        <v>28.406479296278508</v>
       </c>
       <c r="D39" s="91"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3141,6 +3176,7 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432533D-05E8-45F5-A300-7B2E50C839F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651FB29-06DD-4C93-A60B-622CE76F7246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -993,19 +984,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1005,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1026,13 +1017,13 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2502,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2546,27 +2537,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="G5" s="86" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="G5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
-      <c r="Q5" s="92" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+      <c r="Q5" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3.66</v>
+        <v>3.81</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="61">
@@ -2591,12 +2582,12 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2631,7 +2622,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>707.90151690000005</v>
+        <v>736.91387415000008</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="7"/>
@@ -2747,7 +2738,7 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>681.6055169</v>
+        <v>710.61787415000003</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="7"/>
@@ -2809,11 +2800,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2830,10 +2821,10 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="89"/>
       <c r="G16" s="7"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
@@ -2842,19 +2833,19 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2874,8 +2865,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2895,8 +2886,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
       <c r="G19" s="7">
         <v>2012</v>
       </c>
@@ -2947,11 +2938,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="G22" s="8"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2960,21 +2951,21 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="89"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2983,10 +2974,10 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="88">
         <v>2012</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
@@ -2998,40 +2989,40 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="94">
         <v>45444</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="89"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="88">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="89"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="38"/>
-      <c r="Q28" s="81" t="s">
+      <c r="Q28" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3059,18 +3050,18 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="Q32" s="81" t="s">
+      <c r="Q32" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
@@ -3078,11 +3069,11 @@
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
@@ -3090,7 +3081,7 @@
       </c>
       <c r="C35" s="90">
         <f>C6/'Financial Model'!F88</f>
-        <v>3.5114162544642857</v>
+        <v>3.6553267566964283</v>
       </c>
       <c r="D35" s="91"/>
     </row>
@@ -3100,7 +3091,7 @@
       </c>
       <c r="C36" s="90">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.9062654700109682</v>
+        <v>3.0253747105851887</v>
       </c>
       <c r="D36" s="91"/>
     </row>
@@ -3110,7 +3101,7 @@
       </c>
       <c r="C37" s="90">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.7983081412372202</v>
+        <v>2.9174173818114402</v>
       </c>
       <c r="D37" s="91"/>
     </row>
@@ -3120,7 +3111,7 @@
       </c>
       <c r="C38" s="90">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>16.966307587669284</v>
+        <v>17.661648062573764</v>
       </c>
       <c r="D38" s="91"/>
     </row>
@@ -3130,7 +3121,7 @@
       </c>
       <c r="C39" s="90">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>28.406479296278508</v>
+        <v>29.615593520157763</v>
       </c>
       <c r="D39" s="91"/>
     </row>
@@ -3151,6 +3142,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3163,20 +3168,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3191,11 +3182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18B329-9CBE-49D8-B2AA-D4DBC0BF2B3C}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651FB29-06DD-4C93-A60B-622CE76F7246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB408883-F576-4D82-A0C0-018BC372F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
   <si>
     <t>£RPI</t>
   </si>
@@ -532,6 +541,12 @@
   </si>
   <si>
     <t>Compute module 5</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 500 &amp; new USB monitor release in time for Christmas</t>
+  </si>
+  <si>
+    <t>Stockopedia</t>
   </si>
 </sst>
 </file>
@@ -838,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -984,16 +999,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,10 +1023,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1017,15 +1032,16 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2493,13 +2509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F4785-7CF0-4D4B-866B-DCE268552EE9}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -2537,27 +2554,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="G5" s="85" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="G5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
-      <c r="Q5" s="81" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
+      <c r="Q5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2567,27 +2584,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3.81</v>
+        <v>4.2039999999999997</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="G6" s="61">
-        <v>45597</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>154</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="82" t="s">
+      <c r="Q6" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2622,11 +2635,15 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>736.91387415000008</v>
+        <v>813.11966585999994</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="62"/>
+      <c r="G8" s="61">
+        <v>45627</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>157</v>
+      </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -2655,12 +2672,8 @@
         <f t="shared" ref="D9:D11" si="0">+$C$30</f>
         <v>H124</v>
       </c>
-      <c r="G9" s="61">
-        <v>45536</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>11</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
@@ -2683,8 +2696,12 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="62"/>
+      <c r="G10" s="61">
+        <v>45597</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>154</v>
+      </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
@@ -2713,12 +2730,8 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="G11" s="61">
-        <v>45505</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
@@ -2738,11 +2751,15 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>710.61787415000003</v>
+        <v>786.82366585999989</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="61">
+        <v>45536</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
@@ -2767,12 +2784,8 @@
         <v>0.76</v>
       </c>
       <c r="D13" s="56"/>
-      <c r="G13" s="61">
-        <v>45444</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>36</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2787,8 +2800,12 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G14" s="7"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="61">
+        <v>45505</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2800,11 +2817,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2821,31 +2838,35 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="62"/>
+      <c r="D16" s="83"/>
+      <c r="G16" s="61">
+        <v>45444</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>36</v>
+      </c>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="82" t="s">
+      <c r="Q16" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="7"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -2865,8 +2886,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="7"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -2886,14 +2907,10 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="G19" s="7">
-        <v>2012</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>132</v>
-      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
       <c r="K19" s="62"/>
@@ -2923,12 +2940,8 @@
       <c r="X20" s="42"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G21" s="7">
-        <v>2009</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>131</v>
-      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="62"/>
       <c r="J21" s="62"/>
       <c r="K21" s="62"/>
@@ -2938,34 +2951,46 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
-      <c r="Q22" s="82" t="s">
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="G22" s="7">
+        <v>2012</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="60"/>
+      <c r="Q22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="83"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="60"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2974,13 +2999,25 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="82">
         <v>2012</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="48" t="s">
         <v>130</v>
       </c>
+      <c r="G24" s="7">
+        <v>2009</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="60"/>
       <c r="Q24" s="1" t="s">
         <v>145</v>
       </c>
@@ -2989,40 +3026,48 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="89">
         <v>45444</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="83"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="82">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="83"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="38"/>
-      <c r="Q28" s="82" t="s">
+      <c r="Q28" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3050,112 +3095,106 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="93"/>
+      <c r="D31" s="85"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="Q32" s="82" t="s">
+      <c r="Q32" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="85" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="90">
         <f>C6/'Financial Model'!F88</f>
-        <v>3.6553267566964283</v>
+        <v>4.0333316758928568</v>
       </c>
       <c r="D35" s="91"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="90">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>3.0253747105851887</v>
+        <v>3.3382349824934723</v>
       </c>
       <c r="D36" s="91"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="90">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>2.9174173818114402</v>
+        <v>3.2302776537197246</v>
       </c>
       <c r="D37" s="91"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="90">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>17.661648062573764</v>
+        <v>19.488075709989527</v>
       </c>
       <c r="D38" s="91"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C39" s="90">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>29.615593520157763</v>
+        <v>32.791533548213927</v>
       </c>
       <c r="D39" s="91"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="95">
+        <v>45636</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="82">
+        <v>42</v>
+      </c>
+      <c r="D40" s="83"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
+  <mergeCells count="27">
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="Q16:T16"/>
@@ -3168,6 +3207,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3182,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18B329-9CBE-49D8-B2AA-D4DBC0BF2B3C}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB408883-F576-4D82-A0C0-018BC372F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2BFD6-ED6D-4BBD-9BC6-5D99BF2F93CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -999,19 +990,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,25 +1018,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2510,7 +2501,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:D40"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2554,27 +2545,27 @@
       <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="G5" s="86" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="G5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
-      <c r="Q5" s="92" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
+      <c r="Q5" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
       <c r="X5" s="25" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>4.2039999999999997</v>
+        <v>5.3</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
@@ -2595,12 +2586,12 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2635,7 +2626,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>813.11966585999994</v>
+        <v>1025.1032895000001</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="61">
@@ -2751,7 +2742,7 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>786.82366585999989</v>
+        <v>998.80728950000002</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="61">
@@ -2817,11 +2808,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="G15" s="7"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -2854,12 +2845,12 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
       <c r="N16" s="60"/>
-      <c r="Q16" s="81" t="s">
+      <c r="Q16" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
@@ -2907,8 +2898,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="G19" s="7"/>
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
@@ -2951,11 +2942,11 @@
       <c r="X21" s="42"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -2968,12 +2959,12 @@
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="60"/>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
@@ -3026,7 +3017,7 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="95">
         <v>45444</v>
       </c>
       <c r="D25" s="83"/>
@@ -3062,12 +3053,12 @@
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="38"/>
-      <c r="Q28" s="81" t="s">
+      <c r="Q28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3095,18 +3086,18 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="94"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="Q32" s="81" t="s">
+      <c r="Q32" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
@@ -3114,64 +3105,64 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="90">
+      <c r="C35" s="91">
         <f>C6/'Financial Model'!F88</f>
-        <v>4.0333316758928568</v>
-      </c>
-      <c r="D35" s="91"/>
+        <v>5.0848377455357134</v>
+      </c>
+      <c r="D35" s="92"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="91">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>3.3382349824934723</v>
-      </c>
-      <c r="D36" s="91"/>
+        <v>4.208526500289107</v>
+      </c>
+      <c r="D36" s="92"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="90">
+      <c r="C37" s="91">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>3.2302776537197246</v>
-      </c>
-      <c r="D37" s="91"/>
+        <v>4.1005691715153585</v>
+      </c>
+      <c r="D37" s="92"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="90">
+      <c r="C38" s="91">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>19.488075709989527</v>
-      </c>
-      <c r="D38" s="91"/>
+        <v>24.568696779958255</v>
+      </c>
+      <c r="D38" s="92"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="90">
+      <c r="C39" s="91">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>32.791533548213927</v>
-      </c>
-      <c r="D39" s="91"/>
+        <v>41.62612814402501</v>
+      </c>
+      <c r="D39" s="92"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="95">
+      <c r="A40" s="81">
         <v>45636</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -3194,6 +3185,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3210,17 +3212,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2BFD6-ED6D-4BBD-9BC6-5D99BF2F93CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5077E-6446-4BF9-BE5A-D9E3A2540C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
   <si>
     <t>£RPI</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>Stockopedia</t>
+  </si>
+  <si>
+    <t>Richard Boult</t>
+  </si>
+  <si>
+    <t>Prev. Dovetail, Time Out</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,7 +887,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -997,25 +1002,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1030,9 +1020,26 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2501,7 +2508,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2514,59 +2521,59 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="G5" s="88" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-      <c r="Q5" s="84" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
+      <c r="Q5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="X5" s="25" t="s">
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2575,23 +2582,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3</v>
+        <v>6.44</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="60"/>
-      <c r="Q6" s="85" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="59"/>
+      <c r="Q6" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2606,13 +2613,13 @@
         <v>H124</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="59"/>
       <c r="Q7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2624,30 +2631,30 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="95">
         <f>C6*C7</f>
-        <v>1025.1032895000001</v>
+        <v>1245.5972046000002</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="G8" s="61">
+      <c r="G8" s="60">
         <v>45627</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="59"/>
       <c r="Q8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T8" s="1">
         <v>2024</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="U8" s="47" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2655,7 +2662,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="95">
         <f>+'Financial Model'!F90*$C$13</f>
         <v>30.704000000000001</v>
       </c>
@@ -2664,13 +2671,13 @@
         <v>H124</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59"/>
       <c r="Q9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2686,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="95">
         <f>+'Financial Model'!F91*$C$13</f>
         <v>4.4079999999999995</v>
       </c>
@@ -2687,18 +2694,18 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="60">
         <v>45597</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="59"/>
       <c r="Q10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2713,7 +2720,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="95">
         <f>C9-C10</f>
         <v>26.295999999999999</v>
       </c>
@@ -2722,13 +2729,13 @@
         <v>H124</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="59"/>
       <c r="Q11" s="1" t="s">
         <v>127</v>
       </c>
@@ -2740,23 +2747,23 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="96">
         <f>C8-C11</f>
-        <v>998.80728950000002</v>
+        <v>1219.3012046000001</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="G12" s="61">
+      <c r="G12" s="60">
         <v>45536</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="59"/>
       <c r="Q12" s="1" t="s">
         <v>128</v>
       </c>
@@ -2768,21 +2775,21 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>0.76</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="55"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="59"/>
       <c r="Q13" s="1" t="s">
         <v>137</v>
       </c>
@@ -2791,81 +2798,86 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G14" s="61">
+      <c r="G14" s="60">
         <v>45505</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59"/>
       <c r="Q14" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="G16" s="61">
+      <c r="D16" s="82"/>
+      <c r="G16" s="60">
         <v>45444</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="60"/>
-      <c r="Q16" s="85" t="s">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="59"/>
+      <c r="Q16" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="59"/>
       <c r="Q17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2877,20 +2889,20 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59"/>
       <c r="Q18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="W18" s="41" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2898,90 +2910,90 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="59"/>
       <c r="Q19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W19" s="42" t="s">
+      <c r="W19" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="X19" s="42"/>
+      <c r="X19" s="41"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G20" s="7"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="60"/>
-      <c r="W20" s="80" t="s">
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="59"/>
+      <c r="W20" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="X20" s="42"/>
+      <c r="X20" s="41"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G21" s="7"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="60"/>
-      <c r="X21" s="42"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="59"/>
+      <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="60"/>
-      <c r="Q22" s="85" t="s">
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="59"/>
+      <c r="Q22" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="82"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="59"/>
       <c r="Q23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2990,25 +3002,25 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="81">
         <v>2012</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G24" s="7">
         <v>2009</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="59"/>
       <c r="Q24" s="1" t="s">
         <v>145</v>
       </c>
@@ -3017,48 +3029,48 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="95">
+      <c r="C25" s="83">
         <v>45444</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="82"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
       <c r="Q25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="81">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="G28" s="38"/>
-      <c r="Q28" s="85" t="s">
+      <c r="G28" s="37"/>
+      <c r="Q28" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3075,7 +3087,7 @@
       <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="62">
         <v>45559</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -3086,18 +3098,18 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="94"/>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="Q32" s="85" t="s">
+      <c r="Q32" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
@@ -3105,73 +3117,73 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="85">
         <f>C6/'Financial Model'!F88</f>
-        <v>5.0848377455357134</v>
-      </c>
-      <c r="D35" s="92"/>
+        <v>6.1785575625</v>
+      </c>
+      <c r="D35" s="86"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="85">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>4.208526500289107</v>
-      </c>
-      <c r="D36" s="92"/>
+        <v>5.11375672865318</v>
+      </c>
+      <c r="D36" s="86"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="91">
+      <c r="C37" s="85">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>4.1005691715153585</v>
-      </c>
-      <c r="D37" s="92"/>
+        <v>5.0057993998794315</v>
+      </c>
+      <c r="D37" s="86"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="91">
+      <c r="C38" s="85">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>24.568696779958255</v>
-      </c>
-      <c r="D38" s="92"/>
+        <v>29.853284389232297</v>
+      </c>
+      <c r="D38" s="86"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="91">
+      <c r="C39" s="85">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>41.62612814402501</v>
-      </c>
-      <c r="D39" s="92"/>
+        <v>50.815396245507337</v>
+      </c>
+      <c r="D39" s="86"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="81">
+      <c r="A40" s="80">
         <v>45636</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="81">
         <v>42</v>
       </c>
-      <c r="D40" s="83"/>
+      <c r="D40" s="82"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
@@ -3185,17 +3197,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3212,6 +3213,17 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3238,173 +3250,173 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="29"/>
+    <col min="5" max="5" width="9.140625" style="28"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="29"/>
+    <col min="7" max="7" width="9.140625" style="28"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="D2" s="68">
+    <row r="2" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64"/>
+      <c r="D2" s="67">
         <v>45107</v>
       </c>
-      <c r="E2" s="67" t="str">
+      <c r="E2" s="66" t="str">
         <f>K2</f>
         <v>31/12/023</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="67">
         <v>45473</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="I2" s="68">
+      <c r="G2" s="66"/>
+      <c r="I2" s="67">
         <v>44561</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="67">
         <v>44926</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="64">
+    <row r="3" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="63">
         <v>45559</v>
       </c>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <v>27</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="74">
         <f>K4-D4</f>
         <v>77.75</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="48">
         <v>77.7</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="I4" s="52">
+      <c r="G4" s="50"/>
+      <c r="I4" s="51">
         <v>75.173000000000002</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="51">
         <v>64.546000000000006</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="51">
         <v>104.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <v>19.8</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="74">
         <f>K5-D5</f>
         <v>25.477999999999998</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="48">
         <v>26.7</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="I5" s="52">
+      <c r="G5" s="50"/>
+      <c r="I5" s="51">
         <v>12.337</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <v>30.446999999999999</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="51">
         <v>45.277999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <v>23.4</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="74">
         <f>K6-D6</f>
         <v>36.917000000000002</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <v>22.6</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="I6" s="52">
+      <c r="G6" s="50"/>
+      <c r="I6" s="51">
         <v>22.186</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="51">
         <v>49.491999999999997</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="51">
         <v>60.317</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <f>18.7+0.4</f>
         <v>19.099999999999998</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="74">
         <f>K7-D7</f>
         <v>36.352000000000004</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="70">
         <v>17</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="I7" s="52">
+      <c r="G7" s="50"/>
+      <c r="I7" s="51">
         <v>30.890999999999998</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="51">
         <v>43.374000000000002</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="51">
         <v>55.451999999999998</v>
       </c>
     </row>
@@ -3412,148 +3424,148 @@
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="I8" s="53" t="s">
+      <c r="G8" s="29"/>
+      <c r="I8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>74.599999999999994</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="74">
         <f>K9-D9</f>
         <v>137.679</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>89.5</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="I9" s="52">
+      <c r="G9" s="50"/>
+      <c r="I9" s="51">
         <v>83.522999999999996</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="51">
         <v>150.065</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <v>212.279</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>3.1</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="74">
         <f>K10-D10</f>
         <v>5.6870000000000012</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <v>10.3</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="I10" s="52">
+      <c r="G10" s="50"/>
+      <c r="I10" s="51">
         <v>26.780999999999999</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="51">
         <v>9.5730000000000004</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <v>8.7870000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>11.1</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <f>K11-D11</f>
         <v>32.384</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <v>43.6</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="I11" s="52">
+      <c r="G11" s="50"/>
+      <c r="I11" s="51">
         <v>28.062999999999999</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <v>26.591000000000001</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <v>43.484000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <v>0.5</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="74">
         <f>K12-D12</f>
         <v>0.74700000000000011</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <v>0.6</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="I12" s="52">
+      <c r="G12" s="50"/>
+      <c r="I12" s="51">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="51">
         <v>1.63</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="69" t="s">
+    <row r="13" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="68">
         <f>SUM(D9:D12)</f>
         <v>89.299999999999983</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="69">
         <f>SUM(E9:E12)</f>
         <v>176.49700000000001</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <f>SUM(F9:F12)</f>
         <v>144</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="I13" s="69">
+      <c r="G13" s="69"/>
+      <c r="I13" s="68">
         <v>140.58699999999999</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="68">
         <v>187.85900000000001</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="68">
         <v>265.79700000000003</v>
       </c>
     </row>
@@ -3564,20 +3576,20 @@
       <c r="D14" s="1">
         <v>66.099999999999994</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <f>K14-D14</f>
         <v>133.74200000000002</v>
       </c>
       <c r="F14" s="1">
         <v>109.8</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <v>98.67</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>145.57900000000001</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="32">
         <v>199.84200000000001</v>
       </c>
     </row>
@@ -3585,28 +3597,28 @@
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <f>+D13-D14</f>
         <v>23.199999999999989</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="75">
         <f>+E13-E14</f>
         <v>42.754999999999995</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <f>+F13-F14</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="I15" s="32">
+      <c r="G15" s="29"/>
+      <c r="I15" s="31">
         <f>+I13-I14</f>
         <v>41.916999999999987</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="31">
         <f>+J13-J14</f>
         <v>42.28</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f>+K13-K14</f>
         <v>65.955000000000013</v>
       </c>
@@ -3618,20 +3630,20 @@
       <c r="D16" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <f t="shared" ref="E16:E24" si="0">K16-D16</f>
         <v>9.4499999999999993</v>
       </c>
       <c r="F16" s="1">
         <v>14.3</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <v>11.792999999999999</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>13.794</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>17.649999999999999</v>
       </c>
     </row>
@@ -3642,20 +3654,20 @@
       <c r="D17" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="39">
         <f t="shared" si="0"/>
         <v>5.9820000000000011</v>
       </c>
       <c r="F17" s="1">
         <v>8.5</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <v>11.124000000000001</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <v>9.2509999999999994</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>10.582000000000001</v>
       </c>
     </row>
@@ -3666,20 +3678,20 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <f t="shared" si="0"/>
         <v>-0.191</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>-0.191</v>
       </c>
     </row>
@@ -3690,20 +3702,20 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>0</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>0</v>
       </c>
     </row>
@@ -3711,28 +3723,28 @@
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <f t="shared" ref="D20:F20" si="1">+D15-D16-D17+D18+D19</f>
         <v>10.39999999999999</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="75">
         <f t="shared" si="1"/>
         <v>27.131999999999994</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f t="shared" si="1"/>
         <v>11.400000000000002</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="I20" s="32">
+      <c r="G20" s="29"/>
+      <c r="I20" s="31">
         <f t="shared" ref="I20:J20" si="2">+I15-I16-I17+I18+I19</f>
         <v>18.764999999999986</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="31">
         <f t="shared" si="2"/>
         <v>20.067999999999998</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <f>+K15-K16-K17+K18+K19</f>
         <v>37.532000000000011</v>
       </c>
@@ -3744,20 +3756,20 @@
       <c r="D21" s="1">
         <v>0.5</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <f t="shared" si="0"/>
         <v>0.94300000000000006</v>
       </c>
       <c r="F21" s="1">
         <v>0.3</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <v>0</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <v>1.4430000000000001</v>
       </c>
     </row>
@@ -3768,20 +3780,20 @@
       <c r="D22" s="1">
         <v>0.2</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <f t="shared" si="0"/>
         <v>0.57899999999999996</v>
       </c>
       <c r="F22" s="1">
         <v>0.9</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="32">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="32">
         <v>0.77900000000000003</v>
       </c>
     </row>
@@ -3789,27 +3801,27 @@
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="32">
         <f t="shared" ref="D23:F23" si="3">+D20+D21-D22</f>
         <v>10.69999999999999</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <f t="shared" si="3"/>
         <v>27.495999999999995</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <f t="shared" si="3"/>
         <v>10.800000000000002</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" ref="I23:J23" si="4">+I20+I21-I22</f>
         <v>18.472999999999985</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <f t="shared" si="4"/>
         <v>20.087999999999997</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <f>+K20+K21-K22</f>
         <v>38.196000000000005</v>
       </c>
@@ -3821,20 +3833,20 @@
       <c r="D24" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="39">
         <f t="shared" si="0"/>
         <v>4.4239999999999995</v>
       </c>
       <c r="F24" s="1">
         <v>3.2</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>3.6219999999999999</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <v>3.0209999999999999</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="32">
         <v>6.6239999999999997</v>
       </c>
     </row>
@@ -3842,283 +3854,283 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f t="shared" ref="D25:F25" si="5">+D23-D24</f>
         <v>8.4999999999999893</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="75">
         <f t="shared" si="5"/>
         <v>23.071999999999996</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f t="shared" si="5"/>
         <v>7.6000000000000023</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="I25" s="32">
+      <c r="G25" s="29"/>
+      <c r="I25" s="31">
         <f t="shared" ref="I25:J25" si="6">+I23-I24</f>
         <v>14.850999999999985</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="31">
         <f t="shared" si="6"/>
         <v>17.066999999999997</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <f>+K23-K24</f>
         <v>31.572000000000006</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="2:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <f>D25/D27</f>
         <v>4.3946790983348943E-2</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <f>E25/E27</f>
         <v>0.11928710136092092</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <f>F25/F27</f>
         <v>3.9293601349817943E-2</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="I26" s="38">
+      <c r="G26" s="38"/>
+      <c r="I26" s="37">
         <f>I25/I27</f>
         <v>0.14404182266105395</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="37">
         <f>J25/J27</f>
         <v>0.15525193075656546</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="37">
         <f>K25/K27</f>
         <v>0.28384428661332378</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="2:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <v>193.41571500000001</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <f>D27</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="32">
         <v>193.41571500000001</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="I27" s="72">
+      <c r="G27" s="39"/>
+      <c r="I27" s="71">
         <v>103.102</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="71">
         <v>109.931</v>
       </c>
-      <c r="K27" s="72">
+      <c r="K27" s="71">
         <v>111.23</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="2:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="34">
+      <c r="E30" s="34"/>
+      <c r="F30" s="33">
         <f>F13/D13-1</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="I30" s="36" t="s">
+      <c r="G30" s="34"/>
+      <c r="I30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="33">
         <f>J13/I13-1</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="33">
         <f>K13/J13-1</f>
         <v>0.41487498602675421</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
+    <row r="31" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="54">
+      <c r="E31" s="54"/>
+      <c r="F31" s="53">
         <f>F4/D4-1</f>
         <v>1.8777777777777778</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="I31" s="36" t="s">
+      <c r="G31" s="54"/>
+      <c r="I31" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="53">
         <f t="shared" ref="J31:K34" si="7">J4/I4-1</f>
         <v>-0.1413672462187221</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="53">
         <f t="shared" si="7"/>
         <v>0.62287360951879256</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50" t="s">
+    <row r="32" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="54">
+      <c r="E32" s="54"/>
+      <c r="F32" s="53">
         <f t="shared" ref="F32:F34" si="8">F5/D5-1</f>
         <v>0.3484848484848484</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="I32" s="36" t="s">
+      <c r="G32" s="54"/>
+      <c r="I32" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="53">
         <f t="shared" si="7"/>
         <v>1.4679419632001296</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32" s="53">
         <f t="shared" si="7"/>
         <v>0.48710874634610968</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50" t="s">
+    <row r="33" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="54">
+      <c r="E33" s="54"/>
+      <c r="F33" s="53">
         <f t="shared" si="8"/>
         <v>-3.4188034188034067E-2</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="I33" s="36" t="s">
+      <c r="G33" s="54"/>
+      <c r="I33" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="53">
         <f t="shared" si="7"/>
         <v>1.2307761651491931</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K33" s="53">
         <f t="shared" si="7"/>
         <v>0.21872221773215883</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
+    <row r="34" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="54">
+      <c r="E34" s="54"/>
+      <c r="F34" s="53">
         <f t="shared" si="8"/>
         <v>-0.10994764397905754</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="I34" s="36" t="s">
+      <c r="G34" s="54"/>
+      <c r="I34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="53">
         <f t="shared" si="7"/>
         <v>0.40409828105273404</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="53">
         <f t="shared" si="7"/>
         <v>0.2784617512795684</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="59" t="s">
+    <row r="35" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="E35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F36" s="53">
         <f>F9/D9-1</f>
         <v>0.19973190348525471</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="53">
         <f t="shared" ref="J36:K39" si="9">J9/I9-1</f>
         <v>0.79669073189420891</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="53">
         <f t="shared" si="9"/>
         <v>0.41458034851564318</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="53">
         <f t="shared" ref="F37:F39" si="10">F10/D10-1</f>
         <v>2.3225806451612905</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="54">
+      <c r="J37" s="53">
         <f t="shared" si="9"/>
         <v>-0.6425450879354766</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="53">
         <f t="shared" si="9"/>
         <v>-8.2105922908179196E-2</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="53">
         <f t="shared" si="10"/>
         <v>2.9279279279279282</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="53">
         <f t="shared" si="9"/>
         <v>-5.2453408402522772E-2</v>
       </c>
-      <c r="K38" s="54">
+      <c r="K38" s="53">
         <f t="shared" si="9"/>
         <v>0.63529013576021964</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F39" s="53">
         <f t="shared" si="10"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="54">
+      <c r="J39" s="53">
         <f t="shared" si="9"/>
         <v>-0.26576576576576583</v>
       </c>
-      <c r="K39" s="54">
+      <c r="K39" s="53">
         <f t="shared" si="9"/>
         <v>-0.2349693251533741</v>
       </c>
@@ -4127,13 +4139,13 @@
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4141,27 +4153,27 @@
       <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="36">
         <f>D15/D13</f>
         <v>0.25979843225083976</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="76">
         <f>E15/E13</f>
         <v>0.2422420777690272</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="36">
         <f>F15/F13</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <f>I15/I13</f>
         <v>0.29815701309509407</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="36">
         <f>J15/J13</f>
         <v>0.22506241383165032</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <f>K15/K13</f>
         <v>0.24814049819975398</v>
       </c>
@@ -4170,27 +4182,27 @@
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <f>D20/D13</f>
         <v>0.11646136618141088</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="76">
         <f>E20/E13</f>
         <v>0.1537249924927902</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <f>F20/F13</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <f>I20/I13</f>
         <v>0.13347606819976235</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <f>J20/J13</f>
         <v>0.10682479945065181</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <f>K20/K13</f>
         <v>0.14120550645793598</v>
       </c>
@@ -4199,27 +4211,27 @@
       <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <f>D25/D13</f>
         <v>9.5184770436730015E-2</v>
       </c>
-      <c r="E44" s="77">
+      <c r="E44" s="76">
         <f>E25/E13</f>
         <v>0.13072176864195989</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <f>F25/F13</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="36">
         <f>I25/I13</f>
         <v>0.10563565621287876</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="36">
         <f>J25/J13</f>
         <v>9.0850052432941711E-2</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <f>K25/K13</f>
         <v>0.11878237903362342</v>
       </c>
@@ -4228,33 +4240,33 @@
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <f t="shared" ref="D45" si="11">D24/D23</f>
         <v>0.20560747663551421</v>
       </c>
-      <c r="E45" s="77">
+      <c r="E45" s="76">
         <f t="shared" ref="E45:F45" si="12">E24/E23</f>
         <v>0.16089613034623218</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <f t="shared" si="12"/>
         <v>0.29629629629629622</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <f t="shared" ref="I45:J45" si="13">I24/I23</f>
         <v>0.19606993991230459</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <f t="shared" si="13"/>
         <v>0.1503882915173238</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <f>K24/K23</f>
         <v>0.17342130065975492</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4266,7 +4278,7 @@
         <f>SUM(D51:D56)</f>
         <v>95</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="29">
         <f t="shared" ref="E50:E56" si="14">K50</f>
         <v>103</v>
       </c>
@@ -4274,7 +4286,7 @@
         <f>SUM(F51:F56)</f>
         <v>115</v>
       </c>
-      <c r="G50" s="30"/>
+      <c r="G50" s="29"/>
       <c r="I50" s="2">
         <f>SUM(I51:I56)</f>
         <v>85</v>
@@ -4288,180 +4300,180 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="43" t="s">
+    <row r="51" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="43">
         <v>46</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="44">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="43">
         <v>61</v>
       </c>
-      <c r="G51" s="45"/>
-      <c r="I51" s="44">
+      <c r="G51" s="44"/>
+      <c r="I51" s="43">
         <v>39</v>
       </c>
-      <c r="J51" s="44">
+      <c r="J51" s="43">
         <v>44</v>
       </c>
-      <c r="K51" s="44">
+      <c r="K51" s="43">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="43" t="s">
+    <row r="52" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="43">
         <v>19</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="44">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="43">
         <v>21</v>
       </c>
-      <c r="G52" s="45"/>
-      <c r="I52" s="44">
+      <c r="G52" s="44"/>
+      <c r="I52" s="43">
         <v>14</v>
       </c>
-      <c r="J52" s="44">
+      <c r="J52" s="43">
         <v>16</v>
       </c>
-      <c r="K52" s="44">
+      <c r="K52" s="43">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43" t="s">
+    <row r="53" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="44">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="I53" s="44">
+      <c r="G53" s="44"/>
+      <c r="I53" s="43">
         <v>8</v>
       </c>
-      <c r="J53" s="44">
+      <c r="J53" s="43">
         <v>10</v>
       </c>
-      <c r="K53" s="44">
+      <c r="K53" s="43">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="43" t="s">
+    <row r="54" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="43">
         <v>16</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="44">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="43">
         <v>14</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="I54" s="44">
+      <c r="G54" s="44"/>
+      <c r="I54" s="43">
         <v>10</v>
       </c>
-      <c r="J54" s="44">
+      <c r="J54" s="43">
         <v>10</v>
       </c>
-      <c r="K54" s="44">
+      <c r="K54" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="43" t="s">
+    <row r="55" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="43">
         <v>11</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="44">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="43">
         <v>15</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="I55" s="44">
+      <c r="G55" s="44"/>
+      <c r="I55" s="43">
         <v>10</v>
       </c>
-      <c r="J55" s="44">
+      <c r="J55" s="43">
         <v>12</v>
       </c>
-      <c r="K55" s="44">
+      <c r="K55" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="43" t="s">
+    <row r="56" spans="2:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="43">
         <v>3</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E56" s="44">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F56" s="44">
+      <c r="F56" s="43">
         <v>4</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="I56" s="44">
+      <c r="G56" s="44"/>
+      <c r="I56" s="43">
         <v>4</v>
       </c>
-      <c r="J56" s="44">
+      <c r="J56" s="43">
         <v>4</v>
       </c>
-      <c r="K56" s="44">
+      <c r="K56" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="46" t="s">
+    <row r="57" spans="2:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="47"/>
-      <c r="F57" s="46">
+      <c r="E57" s="46"/>
+      <c r="F57" s="45">
         <f>F50/D50-1</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="I57" s="36" t="s">
+      <c r="G57" s="46"/>
+      <c r="I57" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="46">
+      <c r="J57" s="45">
         <f>J50/I50-1</f>
         <v>0.12941176470588234</v>
       </c>
-      <c r="K57" s="46">
+      <c r="K57" s="45">
         <f>K50/J50-1</f>
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="40" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4472,20 +4484,20 @@
       <c r="D62" s="1">
         <v>42.5</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="39">
         <f>+K62</f>
         <v>58.634</v>
       </c>
       <c r="F62" s="1">
         <v>65.8</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="32">
         <v>25.806999999999999</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="32">
         <v>35.534999999999997</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="32">
         <v>58.634</v>
       </c>
     </row>
@@ -4496,20 +4508,20 @@
       <c r="D63" s="1">
         <v>4</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="39">
         <f>+K63</f>
         <v>5.0780000000000003</v>
       </c>
       <c r="F63" s="1">
         <v>4.7</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="32">
         <v>3.5590000000000002</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="32">
         <v>3.7210000000000001</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="32">
         <v>5.0780000000000003</v>
       </c>
     </row>
@@ -4520,20 +4532,20 @@
       <c r="D64" s="1">
         <v>1.3</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="39">
         <f>+K64</f>
         <v>6.7190000000000003</v>
       </c>
       <c r="F64" s="1">
         <v>5.9</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="32">
         <v>1.679</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="32">
         <v>1.387</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="32">
         <v>6.7190000000000003</v>
       </c>
     </row>
@@ -4544,20 +4556,20 @@
       <c r="D65" s="1">
         <v>3.1</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="39">
         <f>+K65</f>
         <v>2.698</v>
       </c>
       <c r="F65" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="32">
         <v>0</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="32">
         <v>0</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="32">
         <v>2.698</v>
       </c>
     </row>
@@ -4565,27 +4577,27 @@
       <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="32">
         <f t="shared" ref="D66:F66" si="15">+SUM(D62:D65)</f>
         <v>50.9</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="39">
         <f t="shared" si="15"/>
         <v>73.128999999999991</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F66" s="32">
         <f t="shared" si="15"/>
         <v>78.7</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="32">
         <f t="shared" ref="I66:J66" si="16">+SUM(I62:I65)</f>
         <v>31.044999999999998</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="32">
         <f t="shared" si="16"/>
         <v>40.643000000000001</v>
       </c>
-      <c r="K66" s="33">
+      <c r="K66" s="32">
         <f>+SUM(K62:K65)</f>
         <v>73.128999999999991</v>
       </c>
@@ -4597,21 +4609,21 @@
       <c r="D67" s="2">
         <v>61.9</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="75">
         <f>+K67</f>
         <v>108.057</v>
       </c>
       <c r="F67" s="2">
         <v>145.69999999999999</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="I67" s="32">
+      <c r="G67" s="29"/>
+      <c r="I67" s="31">
         <v>40.576000000000001</v>
       </c>
-      <c r="J67" s="32">
+      <c r="J67" s="31">
         <v>47.889000000000003</v>
       </c>
-      <c r="K67" s="32">
+      <c r="K67" s="31">
         <v>108.057</v>
       </c>
     </row>
@@ -4622,20 +4634,20 @@
       <c r="D68" s="1">
         <v>33.799999999999997</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="39">
         <f>+K68</f>
         <v>39.76</v>
       </c>
       <c r="F68" s="1">
         <v>26.5</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="32">
         <v>20.734000000000002</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="32">
         <v>26.027000000000001</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="32">
         <v>39.76</v>
       </c>
     </row>
@@ -4646,21 +4658,21 @@
       <c r="D69" s="2">
         <v>36.9</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="39">
         <f>+K69</f>
         <v>42.207000000000001</v>
       </c>
       <c r="F69" s="2">
         <v>40.4</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="I69" s="32">
+      <c r="G69" s="29"/>
+      <c r="I69" s="31">
         <v>34.429000000000002</v>
       </c>
-      <c r="J69" s="32">
+      <c r="J69" s="31">
         <v>32.843000000000004</v>
       </c>
-      <c r="K69" s="32">
+      <c r="K69" s="31">
         <v>42.207000000000001</v>
       </c>
     </row>
@@ -4671,20 +4683,20 @@
       <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="39">
         <f>+K70</f>
         <v>2.2010000000000001</v>
       </c>
       <c r="F70" s="1">
         <v>5.5</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="32">
         <v>0</v>
       </c>
-      <c r="J70" s="33">
+      <c r="J70" s="32">
         <v>0</v>
       </c>
-      <c r="K70" s="33">
+      <c r="K70" s="32">
         <v>2.2010000000000001</v>
       </c>
     </row>
@@ -4692,36 +4704,36 @@
       <c r="B71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="32">
         <f t="shared" ref="D71:F71" si="17">+D66+SUM(D67:D70)</f>
         <v>183.5</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="39">
         <f t="shared" si="17"/>
         <v>265.35399999999998</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="32">
         <f t="shared" si="17"/>
         <v>296.8</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="32">
         <f t="shared" ref="I71:J71" si="18">+I66+SUM(I67:I70)</f>
         <v>126.78400000000001</v>
       </c>
-      <c r="J71" s="33">
+      <c r="J71" s="32">
         <f t="shared" si="18"/>
         <v>147.40199999999999</v>
       </c>
-      <c r="K71" s="33">
+      <c r="K71" s="32">
         <f>+K66+SUM(K67:K70)</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E72" s="40"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
+      <c r="E72" s="39"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
@@ -4730,20 +4742,20 @@
       <c r="D73" s="1">
         <v>46.3</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="39">
         <f>+K73</f>
         <v>81.19</v>
       </c>
       <c r="F73" s="1">
         <v>71.400000000000006</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="32">
         <v>22.542999999999999</v>
       </c>
-      <c r="J73" s="33">
+      <c r="J73" s="32">
         <v>26.494</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="32">
         <v>81.19</v>
       </c>
     </row>
@@ -4754,20 +4766,20 @@
       <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="39">
         <f>+K74</f>
         <v>0.44500000000000001</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="32">
         <v>0</v>
       </c>
-      <c r="J74" s="33">
+      <c r="J74" s="32">
         <v>0</v>
       </c>
-      <c r="K74" s="33">
+      <c r="K74" s="32">
         <v>0.44500000000000001</v>
       </c>
     </row>
@@ -4778,20 +4790,20 @@
       <c r="D75" s="1">
         <v>0.2</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="39">
         <f>+K75</f>
         <v>1.252</v>
       </c>
       <c r="F75" s="1">
         <v>1.3</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="32">
         <v>0.16500000000000001</v>
       </c>
-      <c r="J75" s="33">
+      <c r="J75" s="32">
         <v>0.26300000000000001</v>
       </c>
-      <c r="K75" s="33">
+      <c r="K75" s="32">
         <v>1.252</v>
       </c>
     </row>
@@ -4802,20 +4814,20 @@
       <c r="D76" s="1">
         <v>2.1</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="39">
         <f>+K76</f>
         <v>0</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="32">
         <v>0.39</v>
       </c>
-      <c r="J76" s="33">
+      <c r="J76" s="32">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K76" s="33">
+      <c r="K76" s="32">
         <v>0</v>
       </c>
     </row>
@@ -4823,27 +4835,27 @@
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="32">
         <f t="shared" ref="D77:F77" si="19">SUM(D73:D76)</f>
         <v>48.6</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="39">
         <f t="shared" si="19"/>
         <v>82.886999999999986</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="32">
         <f t="shared" si="19"/>
         <v>72.7</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="32">
         <f t="shared" ref="I77:J77" si="20">SUM(I73:I76)</f>
         <v>23.097999999999999</v>
       </c>
-      <c r="J77" s="33">
+      <c r="J77" s="32">
         <f t="shared" si="20"/>
         <v>27.519000000000002</v>
       </c>
-      <c r="K77" s="33">
+      <c r="K77" s="32">
         <f>SUM(K73:K76)</f>
         <v>82.886999999999986</v>
       </c>
@@ -4855,20 +4867,20 @@
       <c r="D78" s="1">
         <v>1.4</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="39">
         <f>+K78</f>
         <v>5.8280000000000003</v>
       </c>
       <c r="F78" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="32">
         <v>1.9510000000000001</v>
       </c>
-      <c r="J78" s="33">
+      <c r="J78" s="32">
         <v>1.359</v>
       </c>
-      <c r="K78" s="33">
+      <c r="K78" s="32">
         <v>5.8280000000000003</v>
       </c>
     </row>
@@ -4879,20 +4891,20 @@
       <c r="D79" s="1">
         <v>8.5</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="39">
         <f>+K79</f>
         <v>10.244</v>
       </c>
       <c r="F79" s="1">
         <v>11.6</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="32">
         <v>6.2140000000000004</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J79" s="32">
         <v>7.673</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K79" s="32">
         <v>10.244</v>
       </c>
     </row>
@@ -4903,20 +4915,20 @@
       <c r="D80" s="1">
         <v>3.7</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E80" s="39">
         <f>+K80</f>
         <v>6.4249999999999998</v>
       </c>
       <c r="F80" s="1">
         <v>5.8</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="32">
         <v>0</v>
       </c>
-      <c r="J80" s="33">
+      <c r="J80" s="32">
         <v>3.7</v>
       </c>
-      <c r="K80" s="33">
+      <c r="K80" s="32">
         <v>6.4249999999999998</v>
       </c>
     </row>
@@ -4927,20 +4939,20 @@
       <c r="D81" s="1">
         <v>0</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="39">
         <f>+K81</f>
         <v>0.75600000000000001</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="32">
         <v>0</v>
       </c>
-      <c r="J81" s="33">
+      <c r="J81" s="32">
         <v>0</v>
       </c>
-      <c r="K81" s="33">
+      <c r="K81" s="32">
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -4948,37 +4960,37 @@
       <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="31">
         <f t="shared" ref="D82:F82" si="21">SUM(D77:D81)</f>
         <v>62.2</v>
       </c>
-      <c r="E82" s="76">
+      <c r="E82" s="75">
         <f t="shared" si="21"/>
         <v>106.13999999999999</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="31">
         <f t="shared" si="21"/>
         <v>95.199999999999989</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="I82" s="32">
+      <c r="G82" s="29"/>
+      <c r="I82" s="31">
         <f t="shared" ref="I82:J82" si="22">SUM(I77:I81)</f>
         <v>31.262999999999998</v>
       </c>
-      <c r="J82" s="32">
+      <c r="J82" s="31">
         <f t="shared" si="22"/>
         <v>40.251000000000005</v>
       </c>
-      <c r="K82" s="32">
+      <c r="K82" s="31">
         <f>SUM(K77:K81)</f>
         <v>106.13999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E83" s="40"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
+      <c r="E83" s="39"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
@@ -4987,20 +4999,20 @@
       <c r="D84" s="1">
         <v>121.3</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="39">
         <f>+K84</f>
         <v>159.214</v>
       </c>
       <c r="F84" s="1">
         <v>201.6</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="32">
         <v>95.521000000000001</v>
       </c>
-      <c r="J84" s="33">
+      <c r="J84" s="32">
         <v>107.151</v>
       </c>
-      <c r="K84" s="33">
+      <c r="K84" s="32">
         <v>159.214</v>
       </c>
     </row>
@@ -5008,53 +5020,53 @@
       <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="32">
         <f>+D84+D82</f>
         <v>183.5</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="39">
         <f>+E84+E82</f>
         <v>265.35399999999998</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="32">
         <f>+F84+F82</f>
         <v>296.79999999999995</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="32">
         <f>+I84+I82</f>
         <v>126.78399999999999</v>
       </c>
-      <c r="J85" s="33">
+      <c r="J85" s="32">
         <f>+J84+J82</f>
         <v>147.40199999999999</v>
       </c>
-      <c r="K85" s="33">
+      <c r="K85" s="32">
         <f>+K84+K82</f>
         <v>265.35399999999998</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E86" s="40"/>
-      <c r="I86" s="33"/>
-      <c r="K86" s="33"/>
+      <c r="E86" s="39"/>
+      <c r="I86" s="32"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="32">
         <f t="shared" ref="D87" si="23">D71-D82</f>
         <v>121.3</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="39">
         <f t="shared" ref="E87:F87" si="24">E71-E82</f>
         <v>159.214</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="32">
         <f t="shared" si="24"/>
         <v>201.60000000000002</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="32">
         <f t="shared" ref="I87:J87" si="25">I71-I82</f>
         <v>95.521000000000015</v>
       </c>
@@ -5062,7 +5074,7 @@
         <f t="shared" si="25"/>
         <v>107.15099999999998</v>
       </c>
-      <c r="K87" s="33">
+      <c r="K87" s="32">
         <f>K71-K82</f>
         <v>159.214</v>
       </c>
@@ -5071,19 +5083,19 @@
       <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D88" s="32">
         <f>D87/D27</f>
         <v>0.62714655838590982</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="28">
         <f>E87/E27</f>
         <v>0.82316992701446201</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="32">
         <f>F87/F27</f>
         <v>1.0423144779109599</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="32">
         <f t="shared" ref="I88:K88" si="26">I87/I27</f>
         <v>0.92647087350390889</v>
       </c>
@@ -5091,7 +5103,7 @@
         <f t="shared" si="26"/>
         <v>0.97471140988438187</v>
       </c>
-      <c r="K88" s="33">
+      <c r="K88" s="32">
         <f t="shared" si="26"/>
         <v>1.4313944079834577</v>
       </c>
@@ -5100,27 +5112,27 @@
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D90" s="32">
         <f t="shared" ref="D90" si="27">+D69</f>
         <v>36.9</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="28">
         <f t="shared" ref="E90:F90" si="28">+E69</f>
         <v>42.207000000000001</v>
       </c>
-      <c r="F90" s="33">
+      <c r="F90" s="32">
         <f t="shared" si="28"/>
         <v>40.4</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="32">
         <f t="shared" ref="I90:J90" si="29">+I69</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J90" s="33">
+      <c r="J90" s="32">
         <f t="shared" si="29"/>
         <v>32.843000000000004</v>
       </c>
-      <c r="K90" s="33">
+      <c r="K90" s="32">
         <f>+K69</f>
         <v>42.207000000000001</v>
       </c>
@@ -5129,27 +5141,27 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D91" s="32">
         <f t="shared" ref="D91" si="30">+D80</f>
         <v>3.7</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="39">
         <f t="shared" ref="E91:F91" si="31">+E80</f>
         <v>6.4249999999999998</v>
       </c>
-      <c r="F91" s="33">
+      <c r="F91" s="32">
         <f t="shared" si="31"/>
         <v>5.8</v>
       </c>
-      <c r="I91" s="33">
+      <c r="I91" s="32">
         <f t="shared" ref="I91:J91" si="32">+I80</f>
         <v>0</v>
       </c>
-      <c r="J91" s="33">
+      <c r="J91" s="32">
         <f t="shared" si="32"/>
         <v>3.7</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K91" s="32">
         <f>+K80</f>
         <v>6.4249999999999998</v>
       </c>
@@ -5158,28 +5170,28 @@
       <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31">
         <f t="shared" ref="D92" si="33">D90-D91</f>
         <v>33.199999999999996</v>
       </c>
-      <c r="E92" s="76">
+      <c r="E92" s="75">
         <f t="shared" ref="E92:F92" si="34">E90-E91</f>
         <v>35.782000000000004</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="31">
         <f t="shared" si="34"/>
         <v>34.6</v>
       </c>
-      <c r="G92" s="30"/>
-      <c r="I92" s="32">
+      <c r="G92" s="29"/>
+      <c r="I92" s="31">
         <f t="shared" ref="I92:J92" si="35">I90-I91</f>
         <v>34.429000000000002</v>
       </c>
-      <c r="J92" s="32">
+      <c r="J92" s="31">
         <f t="shared" si="35"/>
         <v>29.143000000000004</v>
       </c>
-      <c r="K92" s="32">
+      <c r="K92" s="31">
         <f>K90-K91</f>
         <v>35.782000000000004</v>
       </c>
@@ -5204,7 +5216,7 @@
       <c r="B96" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="32">
         <f>+F95+F27</f>
         <v>593.91571499999998</v>
       </c>
@@ -5213,7 +5225,7 @@
       <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="32">
         <f>+F96-(F92*F94)</f>
         <v>566.58171500000003</v>
       </c>
@@ -5222,7 +5234,7 @@
       <c r="B98" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="32">
         <f>F95*(1/F94)</f>
         <v>506.96202531645565</v>
       </c>
@@ -5236,7 +5248,7 @@
       <c r="B102" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="78">
+      <c r="F102" s="77">
         <f>(F95/100)/F88</f>
         <v>3.8424104095982141</v>
       </c>
@@ -5245,7 +5257,7 @@
       <c r="B103" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="78">
+      <c r="F103" s="77">
         <f>(F96*(1/F94))/SUM(E13:F13)</f>
         <v>2.3457069623235083</v>
       </c>
@@ -5254,7 +5266,7 @@
       <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="78">
+      <c r="F104" s="77">
         <f>(F98/100)/SUM(E26:F26)</f>
         <v>31.968708465189874</v>
       </c>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5077E-6446-4BF9-BE5A-D9E3A2540C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB979D38-42C7-4344-9C62-3E46FAB3690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -996,6 +1005,8 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,8 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2508,7 +2517,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2552,27 +2561,27 @@
       <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="G5" s="89" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="G5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
-      <c r="Q5" s="92" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="Q5" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
       <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>6.44</v>
+        <v>7.22</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
@@ -2593,12 +2602,12 @@
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="59"/>
-      <c r="Q6" s="84" t="s">
+      <c r="Q6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -2631,9 +2640,9 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="81">
         <f>C6*C7</f>
-        <v>1245.5972046000002</v>
+        <v>1396.4614623</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="60">
@@ -2662,7 +2671,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="81">
         <f>+'Financial Model'!F90*$C$13</f>
         <v>30.704000000000001</v>
       </c>
@@ -2686,7 +2695,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="81">
         <f>+'Financial Model'!F91*$C$13</f>
         <v>4.4079999999999995</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C11" s="81">
         <f>C9-C10</f>
         <v>26.295999999999999</v>
       </c>
@@ -2747,9 +2756,9 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="82">
         <f>C8-C11</f>
-        <v>1219.3012046000001</v>
+        <v>1370.1654622999999</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="60">
@@ -2815,11 +2824,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="G15" s="7"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -2836,10 +2845,10 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="84"/>
       <c r="G16" s="60">
         <v>45444</v>
       </c>
@@ -2852,21 +2861,21 @@
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="59"/>
-      <c r="Q16" s="84" t="s">
+      <c r="Q16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="1" t="s">
         <v>160</v>
       </c>
@@ -2889,8 +2898,8 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
       <c r="G18" s="7"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
@@ -2910,8 +2919,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
       <c r="G19" s="7"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2954,11 +2963,11 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -2971,21 +2980,21 @@
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
       <c r="N22" s="59"/>
-      <c r="Q22" s="84" t="s">
+      <c r="Q22" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="84"/>
       <c r="G23" s="7"/>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
@@ -3002,10 +3011,10 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="83">
         <v>2012</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="47" t="s">
         <v>130</v>
       </c>
@@ -3029,10 +3038,10 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="85">
         <v>45444</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="84"/>
       <c r="G25" s="8"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -3047,30 +3056,30 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="83">
         <f>+'Financial Model'!F50</f>
         <v>115</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="84"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="G28" s="37"/>
-      <c r="Q28" s="84" t="s">
+      <c r="Q28" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -3098,18 +3107,18 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="88"/>
+      <c r="D31" s="90"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="Q32" s="84" t="s">
+      <c r="Q32" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
@@ -3117,61 +3126,61 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="87">
         <f>C6/'Financial Model'!F88</f>
-        <v>6.1785575625</v>
-      </c>
-      <c r="D35" s="86"/>
+        <v>6.9268921741071425</v>
+      </c>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="87">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.11375672865318</v>
-      </c>
-      <c r="D36" s="86"/>
+        <v>5.7331247796391231</v>
+      </c>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="87">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.0057993998794315</v>
-      </c>
-      <c r="D37" s="86"/>
+        <v>5.6251674508653746</v>
+      </c>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="87">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>29.853284389232297</v>
-      </c>
-      <c r="D38" s="86"/>
+        <v>33.469054858735582</v>
+      </c>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="87">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>50.815396245507337</v>
-      </c>
-      <c r="D39" s="86"/>
+        <v>57.102790209679448</v>
+      </c>
+      <c r="D39" s="88"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
@@ -3180,10 +3189,10 @@
       <c r="B40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="83">
         <v>42</v>
       </c>
-      <c r="D40" s="82"/>
+      <c r="D40" s="84"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB979D38-42C7-4344-9C62-3E46FAB3690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BB919-3F18-4C3A-A5ED-8A061CC4D54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
   <si>
     <t>£RPI</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Prev. Dovetail, Time Out</t>
+  </si>
+  <si>
+    <t>Elizabeth Upton (Dr's wife) sells 30,000 shares @ 619.57 (£185,872)</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1016,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1031,22 +1049,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2517,7 +2520,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2561,27 +2564,27 @@
       <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
-      <c r="Q5" s="94" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
+      <c r="Q5" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
       <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.22</v>
+        <v>5.71</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="C8" s="81">
         <f>C6*C7</f>
-        <v>1396.4614623</v>
+        <v>1104.4037326499999</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="60">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
@@ -2704,10 +2707,10 @@
         <v>H124</v>
       </c>
       <c r="G10" s="60">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -2758,14 +2761,14 @@
       </c>
       <c r="C12" s="82">
         <f>C8-C11</f>
-        <v>1370.1654622999999</v>
+        <v>1078.1077326499999</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="60">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -2808,10 +2811,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G14" s="60">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -2824,11 +2827,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="G15" s="7"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -2850,10 +2853,10 @@
       </c>
       <c r="D16" s="84"/>
       <c r="G16" s="60">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
@@ -2900,8 +2903,12 @@
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="84"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="61"/>
+      <c r="G18" s="60">
+        <v>45444</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>36</v>
+      </c>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -2919,8 +2926,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="G19" s="7"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2963,11 +2970,11 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -3038,7 +3045,7 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="96">
         <v>45444</v>
       </c>
       <c r="D25" s="84"/>
@@ -3107,10 +3114,10 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="90"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="Q32" s="86" t="s">
@@ -3126,61 +3133,61 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="92">
         <f>C6/'Financial Model'!F88</f>
-        <v>6.9268921741071425</v>
-      </c>
-      <c r="D35" s="88"/>
+        <v>5.4781931183035715</v>
+      </c>
+      <c r="D35" s="93"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="92">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.7331247796391231</v>
-      </c>
-      <c r="D36" s="88"/>
+        <v>4.5340917578586417</v>
+      </c>
+      <c r="D36" s="93"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="92">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.6251674508653746</v>
-      </c>
-      <c r="D37" s="88"/>
+        <v>4.4261344290848923</v>
+      </c>
+      <c r="D37" s="93"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="92">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>33.469054858735582</v>
-      </c>
-      <c r="D38" s="88"/>
+        <v>26.469294078030497</v>
+      </c>
+      <c r="D38" s="93"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="92">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>57.102790209679448</v>
-      </c>
-      <c r="D39" s="88"/>
+        <v>44.931040355961635</v>
+      </c>
+      <c r="D39" s="93"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
@@ -3206,6 +3213,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3222,17 +3240,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3251,7 +3258,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BB919-3F18-4C3A-A5ED-8A061CC4D54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58E631-9BF0-442E-8CD9-F57E9B9D34B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -1016,25 +1016,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1049,7 +1034,22 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2520,7 +2520,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:N7"/>
+      <selection activeCell="Q33" sqref="Q33:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2564,27 +2564,27 @@
       <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="G5" s="89" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="G5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
-      <c r="Q5" s="85" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="Q5" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
       <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2632,10 +2632,12 @@
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
       <c r="N7" s="59"/>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="1">
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61">
         <v>2023</v>
       </c>
     </row>
@@ -2660,10 +2662,12 @@
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
       <c r="N8" s="59"/>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="1">
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61">
         <v>2024</v>
       </c>
       <c r="U8" s="47" t="s">
@@ -2690,9 +2694,12 @@
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="59"/>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="61" t="s">
         <v>46</v>
       </c>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -2718,10 +2725,12 @@
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="59"/>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="T10" s="1">
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61">
         <v>2021</v>
       </c>
       <c r="W10" s="2" t="s">
@@ -2748,9 +2757,12 @@
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="59"/>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="61" t="s">
         <v>127</v>
       </c>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
       <c r="W11" s="1" t="s">
         <v>134</v>
       </c>
@@ -2776,10 +2788,12 @@
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="59"/>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="T12" s="1">
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61">
         <v>2020</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -2802,10 +2816,12 @@
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="59"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="1">
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61">
         <v>2014</v>
       </c>
     </row>
@@ -2822,16 +2838,19 @@
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="59"/>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="61" t="s">
         <v>126</v>
       </c>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="G15" s="7"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -2890,9 +2909,12 @@
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="59"/>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="61" t="s">
         <v>41</v>
       </c>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
       <c r="W17" s="2" t="s">
         <v>138</v>
       </c>
@@ -2915,9 +2937,12 @@
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="59"/>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="61" t="s">
         <v>42</v>
       </c>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
       <c r="W18" s="41" t="s">
         <v>139</v>
       </c>
@@ -2926,8 +2951,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
       <c r="G19" s="7"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2936,9 +2961,12 @@
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="59"/>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="61" t="s">
         <v>43</v>
       </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
       <c r="W19" s="41" t="s">
         <v>152</v>
       </c>
@@ -2970,11 +2998,11 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -3010,9 +3038,12 @@
       <c r="L23" s="61"/>
       <c r="M23" s="61"/>
       <c r="N23" s="59"/>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="61" t="s">
         <v>144</v>
       </c>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
@@ -3037,15 +3068,18 @@
       <c r="L24" s="61"/>
       <c r="M24" s="61"/>
       <c r="N24" s="59"/>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="61" t="s">
         <v>145</v>
       </c>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="85">
         <v>45444</v>
       </c>
       <c r="D25" s="84"/>
@@ -3057,9 +3091,12 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="23"/>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="61" t="s">
         <v>146</v>
       </c>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
@@ -3092,9 +3129,12 @@
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="61" t="s">
         <v>147</v>
       </c>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
@@ -3106,18 +3146,21 @@
       <c r="D30" s="62">
         <v>45559</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="61" t="s">
         <v>148</v>
       </c>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="90"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="Q32" s="86" t="s">
@@ -3127,69 +3170,72 @@
       <c r="S32" s="86"/>
       <c r="T32" s="86"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q33" s="1" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q33" s="61" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="89" t="s">
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="87">
         <f>C6/'Financial Model'!F88</f>
         <v>5.4781931183035715</v>
       </c>
-      <c r="D35" s="93"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D35" s="88"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="92">
+      <c r="C36" s="87">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
         <v>4.5340917578586417</v>
       </c>
-      <c r="D36" s="93"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D36" s="88"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="92">
+      <c r="C37" s="87">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
         <v>4.4261344290848923</v>
       </c>
-      <c r="D37" s="93"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D37" s="88"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="92">
+      <c r="C38" s="87">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
         <v>26.469294078030497</v>
       </c>
-      <c r="D38" s="93"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D38" s="88"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="87">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
         <v>44.931040355961635</v>
       </c>
-      <c r="D39" s="93"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D39" s="88"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
         <v>45636</v>
       </c>
@@ -3201,29 +3247,18 @@
       </c>
       <c r="D40" s="84"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3240,6 +3275,17 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58E631-9BF0-442E-8CD9-F57E9B9D34B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B483483-C31D-48C3-BD9D-5718770107CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2520,7 +2511,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33:T33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>5.71</v>
+        <v>7.5</v>
       </c>
       <c r="D6" s="13"/>
       <c r="G6" s="7"/>
@@ -2647,7 +2638,7 @@
       </c>
       <c r="C8" s="81">
         <f>C6*C7</f>
-        <v>1104.4037326499999</v>
+        <v>1450.6178625</v>
       </c>
       <c r="D8" s="13"/>
       <c r="G8" s="60">
@@ -2773,7 +2764,7 @@
       </c>
       <c r="C12" s="82">
         <f>C8-C11</f>
-        <v>1078.1077326499999</v>
+        <v>1424.3218625</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="60">
@@ -3191,7 +3182,7 @@
       </c>
       <c r="C35" s="87">
         <f>C6/'Financial Model'!F88</f>
-        <v>5.4781931183035715</v>
+        <v>7.1955251116071421</v>
       </c>
       <c r="D35" s="88"/>
     </row>
@@ -3201,7 +3192,7 @@
       </c>
       <c r="C36" s="87">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>4.5340917578586417</v>
+        <v>5.9554620287110005</v>
       </c>
       <c r="D36" s="88"/>
     </row>
@@ -3211,7 +3202,7 @@
       </c>
       <c r="C37" s="87">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>4.4261344290848923</v>
+        <v>5.847504699937252</v>
       </c>
       <c r="D37" s="88"/>
     </row>
@@ -3221,7 +3212,7 @@
       </c>
       <c r="C38" s="87">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>26.469294078030497</v>
+        <v>34.767023745223945</v>
       </c>
       <c r="D38" s="88"/>
     </row>
@@ -3231,7 +3222,7 @@
       </c>
       <c r="C39" s="87">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>44.931040355961635</v>
+        <v>59.359803427587387</v>
       </c>
       <c r="D39" s="88"/>
     </row>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B483483-C31D-48C3-BD9D-5718770107CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7010B-621B-43A8-9C9E-BB96BF46E8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -1007,10 +1007,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1025,22 +1040,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2511,7 +2511,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2555,27 +2555,27 @@
       <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
-      <c r="Q5" s="94" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
+      <c r="Q5" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
       <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C9" s="81">
         <f>+'Financial Model'!F90*$C$13</f>
-        <v>30.704000000000001</v>
+        <v>31.916</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$30</f>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C10" s="81">
         <f>+'Financial Model'!F91*$C$13</f>
-        <v>4.4079999999999995</v>
+        <v>4.5819999999999999</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C11" s="81">
         <f>C9-C10</f>
-        <v>26.295999999999999</v>
+        <v>27.334</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="C12" s="82">
         <f>C8-C11</f>
-        <v>1424.3218625</v>
+        <v>1423.2838624999999</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="60">
@@ -2796,7 +2796,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="57">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="D13" s="55"/>
       <c r="G13" s="7"/>
@@ -2837,11 +2837,11 @@
       <c r="T14" s="61"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="G15" s="7"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -2942,8 +2942,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="G19" s="7"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2989,11 +2989,11 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="96">
         <v>45444</v>
       </c>
       <c r="D25" s="84"/>
@@ -3148,10 +3148,10 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="90"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="Q32" s="86" t="s">
@@ -3170,61 +3170,61 @@
       <c r="T33" s="61"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="92">
         <f>C6/'Financial Model'!F88</f>
         <v>7.1955251116071421</v>
       </c>
-      <c r="D35" s="88"/>
+      <c r="D35" s="93"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="92">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.9554620287110005</v>
-      </c>
-      <c r="D36" s="88"/>
+        <v>5.7293052428105815</v>
+      </c>
+      <c r="D36" s="93"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="92">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
-        <v>5.847504699937252</v>
-      </c>
-      <c r="D37" s="88"/>
+        <v>5.6213479140368339</v>
+      </c>
+      <c r="D37" s="93"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="92">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
-        <v>34.767023745223945</v>
-      </c>
-      <c r="D38" s="88"/>
+        <v>33.446757020721769</v>
+      </c>
+      <c r="D38" s="93"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="92">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
-        <v>59.359803427587387</v>
-      </c>
-      <c r="D39" s="88"/>
+        <v>57.064016926550835</v>
+      </c>
+      <c r="D39" s="93"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
@@ -3250,6 +3250,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3266,17 +3277,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3295,7 +3295,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£RPI.xlsx
+++ b/£RPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7010B-621B-43A8-9C9E-BB96BF46E8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50779DB8-8AAC-4FDD-A120-146574C740A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455D1B8A-3F91-4588-9B7A-FCB01F8FFD95}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
   <si>
     <t>£RPI</t>
   </si>
@@ -547,6 +547,27 @@
   </si>
   <si>
     <t>Elizabeth Upton (Dr's wife) sells 30,000 shares @ 619.57 (£185,872)</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Price (USD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -853,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1007,25 +1028,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1040,9 +1046,26 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2511,7 +2534,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2555,27 +2578,27 @@
       <c r="P3" s="23"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="G5" s="89" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="G5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
-      <c r="Q5" s="85" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="Q5" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
       <c r="X5" s="24" t="s">
         <v>29</v>
       </c>
@@ -2837,11 +2860,11 @@
       <c r="T14" s="61"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="G15" s="7"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -2942,8 +2965,8 @@
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
       <c r="G19" s="7"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2989,11 +3012,11 @@
       <c r="X21" s="41"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="G22" s="7">
         <v>2012</v>
       </c>
@@ -3070,7 +3093,7 @@
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="85">
         <v>45444</v>
       </c>
       <c r="D25" s="84"/>
@@ -3148,10 +3171,10 @@
       <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="90"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="Q32" s="86" t="s">
@@ -3170,61 +3193,61 @@
       <c r="T33" s="61"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="87">
         <f>C6/'Financial Model'!F88</f>
         <v>7.1955251116071421</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="92">
+      <c r="C36" s="87">
         <f>(C8*(1/C13))/SUM('Financial Model'!E13:F13)</f>
         <v>5.7293052428105815</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="92">
+      <c r="C37" s="87">
         <f>(C12*(1/C13))/SUM('Financial Model'!E13:F13)</f>
         <v>5.6213479140368339</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="92">
+      <c r="C38" s="87">
         <f>+C6/('Financial Model'!K26*Main!C13)</f>
         <v>33.446757020721769</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="87">
         <f>C12/('Financial Model'!K25*Main!C13)</f>
         <v>57.064016926550835</v>
       </c>
-      <c r="D39" s="93"/>
+      <c r="D39" s="88"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
@@ -3250,17 +3273,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -3277,6 +3289,17 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q32:T32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{C8D4D434-582F-463A-A9FE-87E24B6B9D24}"/>
@@ -3289,13 +3312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18B329-9CBE-49D8-B2AA-D4DBC0BF2B3C}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="1" sqref="B4:B7 I4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5274,7 +5297,7 @@
         <v>593.91571499999998</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5306,7 @@
         <v>566.58171500000003</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>143</v>
       </c>
@@ -5292,12 +5315,23 @@
         <v>506.96202531645565</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="98"/>
+      <c r="F99" s="97">
+        <f>+F98/100</f>
+        <v>5.0696202531645564</v>
+      </c>
+      <c r="G99" s="98"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>89</v>
       </c>
@@ -5306,7 +5340,7 @@
         <v>3.8424104095982141</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>90</v>
       </c>
@@ -5315,7 +5349,7 @@
         <v>2.3457069623235083</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
@@ -5324,14 +5358,55 @@
         <v>31.968708465189874</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-22.7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" s="1">
+        <f>10.1+1.1</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F111" s="1">
+        <f>+F109-F110</f>
+        <v>-33.9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F112" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5352,7 +5427,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
